--- a/Output Data Structure.xlsx
+++ b/Output Data Structure.xlsx
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99999950000025</v>
+        <v>0.3333332962963004</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008695652136105861</v>
+        <v>0.06428571382653062</v>
       </c>
       <c r="G2" t="n">
-        <v>41</v>
+        <v>44.66666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3963414634146342</v>
+        <v>0.5111940298507462</v>
       </c>
       <c r="I2" t="n">
-        <v>16.55853658536585</v>
+        <v>18.07114427860697</v>
       </c>
       <c r="J2" t="n">
-        <v>41</v>
+        <v>44.66666666666666</v>
       </c>
       <c r="K2" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L2" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="M2" t="n">
-        <v>1.396341463414634</v>
+        <v>1.992537313432836</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>5.472560975609756</v>
+        <v>5.555970149253731</v>
       </c>
     </row>
     <row r="3">
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2631578808864273</v>
+        <v>0.3548386982310097</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03398926648660239</v>
+        <v>0.07989690701057499</v>
       </c>
       <c r="G3" t="n">
-        <v>27.66666666666667</v>
+        <v>28.30555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3243744207599629</v>
+        <v>0.3621197252208047</v>
       </c>
       <c r="I3" t="n">
-        <v>11.19641643497065</v>
+        <v>11.46707011231054</v>
       </c>
       <c r="J3" t="n">
-        <v>27.66666666666667</v>
+        <v>28.30555555555556</v>
       </c>
       <c r="K3" t="n">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>559</v>
+        <v>388</v>
       </c>
       <c r="M3" t="n">
-        <v>1.327154772937905</v>
+        <v>1.615309126594701</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>4.615384615384615</v>
+        <v>4.565260058881256</v>
       </c>
     </row>
     <row r="4">
@@ -624,43 +624,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.636363578512402</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0378006871553241</v>
+        <v>0.09340659289337037</v>
       </c>
       <c r="G4" t="n">
-        <v>43.22222222222222</v>
+        <v>40.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3753213367609254</v>
+        <v>0.5245398773006135</v>
       </c>
       <c r="I4" t="n">
-        <v>17.43901742359326</v>
+        <v>16.50981595092025</v>
       </c>
       <c r="J4" t="n">
-        <v>43.22222222222222</v>
+        <v>40.75</v>
       </c>
       <c r="K4" t="n">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L4" t="n">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="M4" t="n">
-        <v>1.290488431876607</v>
+        <v>1.935582822085889</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>5.429305912596401</v>
+        <v>5.50920245398773</v>
       </c>
     </row>
     <row r="5">
@@ -675,43 +675,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3124999902343753</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06249999987792969</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>10.06666666666667</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>24.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.710810810810811</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5.841891891891892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -726,43 +726,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99999950000025</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00854700851048287</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3641975308641975</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.78567901234568</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.302469135802469</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5.209876543209877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99999950000025</v>
+        <v>0.3333332962963004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008695652136105861</v>
+        <v>0.06428571382653062</v>
       </c>
       <c r="G7" t="n">
-        <v>41</v>
+        <v>44.66666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3963414634146342</v>
+        <v>0.5111940298507462</v>
       </c>
       <c r="I7" t="n">
-        <v>16.55853658536585</v>
+        <v>18.07114427860697</v>
       </c>
       <c r="J7" t="n">
-        <v>41</v>
+        <v>44.66666666666666</v>
       </c>
       <c r="K7" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L7" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="M7" t="n">
-        <v>1.396341463414634</v>
+        <v>1.992537313432836</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>5.472560975609756</v>
+        <v>5.555970149253731</v>
       </c>
     </row>
     <row r="8">
@@ -828,43 +828,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2631578808864273</v>
+        <v>0.3548386982310097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03398926648660239</v>
+        <v>0.07989690701057499</v>
       </c>
       <c r="G8" t="n">
-        <v>27.66666666666667</v>
+        <v>28.30555555555556</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3243744207599629</v>
+        <v>0.3621197252208047</v>
       </c>
       <c r="I8" t="n">
-        <v>11.19641643497065</v>
+        <v>11.46707011231054</v>
       </c>
       <c r="J8" t="n">
-        <v>27.66666666666667</v>
+        <v>28.30555555555556</v>
       </c>
       <c r="K8" t="n">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>559</v>
+        <v>388</v>
       </c>
       <c r="M8" t="n">
-        <v>1.327154772937905</v>
+        <v>1.615309126594701</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>4.615384615384615</v>
+        <v>4.565260058881256</v>
       </c>
     </row>
     <row r="9">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.636363578512402</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0378006871553241</v>
+        <v>0.09340659289337037</v>
       </c>
       <c r="G9" t="n">
-        <v>43.22222222222222</v>
+        <v>40.75</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3753213367609254</v>
+        <v>0.5245398773006135</v>
       </c>
       <c r="I9" t="n">
-        <v>17.43901742359326</v>
+        <v>16.50981595092025</v>
       </c>
       <c r="J9" t="n">
-        <v>43.22222222222222</v>
+        <v>40.75</v>
       </c>
       <c r="K9" t="n">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L9" t="n">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="M9" t="n">
-        <v>1.290488431876607</v>
+        <v>1.935582822085889</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>5.429305912596401</v>
+        <v>5.50920245398773</v>
       </c>
     </row>
     <row r="10">
@@ -930,43 +930,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3124999902343753</v>
+        <v>0.2999999925000002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06249999987792969</v>
+        <v>0.09999999975</v>
       </c>
       <c r="G10" t="n">
-        <v>24.66666666666667</v>
+        <v>24.81481481481481</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5</v>
+        <v>0.5805970149253732</v>
       </c>
       <c r="I10" t="n">
-        <v>10.06666666666667</v>
+        <v>10.15816473189608</v>
       </c>
       <c r="J10" t="n">
-        <v>24.66666666666667</v>
+        <v>24.81481481481481</v>
       </c>
       <c r="K10" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="L10" t="n">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="M10" t="n">
-        <v>1.710810810810811</v>
+        <v>2.102985074626865</v>
       </c>
       <c r="N10" t="n">
         <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>5.841891891891892</v>
+        <v>5.95820895522388</v>
       </c>
     </row>
     <row r="11">
@@ -981,43 +981,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4683544244512098</v>
+        <v>0.4838709625390219</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05813097861800516</v>
+        <v>0.08619091743633835</v>
       </c>
       <c r="G11" t="n">
-        <v>20.45098039215686</v>
+        <v>20.27</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4549376797698945</v>
+        <v>0.5170202269363592</v>
       </c>
       <c r="I11" t="n">
-        <v>8.362367228770703</v>
+        <v>8.314808090774545</v>
       </c>
       <c r="J11" t="n">
-        <v>20.45098039215686</v>
+        <v>20.27</v>
       </c>
       <c r="K11" t="n">
-        <v>949</v>
+        <v>1048</v>
       </c>
       <c r="L11" t="n">
-        <v>1359</v>
+        <v>1079</v>
       </c>
       <c r="M11" t="n">
-        <v>1.612655800575264</v>
+        <v>1.984213122841638</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>5.484180249280921</v>
+        <v>5.496299950666009</v>
       </c>
     </row>
     <row r="12">
@@ -1032,43 +1032,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4782608487712674</v>
+        <v>0.3793103317479196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05032822746098856</v>
+        <v>0.09324758812460583</v>
       </c>
       <c r="G12" t="n">
-        <v>27.70833333333333</v>
+        <v>26.72727272727273</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4451127819548872</v>
+        <v>0.5272108843537415</v>
       </c>
       <c r="I12" t="n">
-        <v>11.26137844611529</v>
+        <v>10.90179344465059</v>
       </c>
       <c r="J12" t="n">
-        <v>27.70833333333333</v>
+        <v>26.72727272727273</v>
       </c>
       <c r="K12" t="n">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="L12" t="n">
-        <v>457</v>
+        <v>311</v>
       </c>
       <c r="M12" t="n">
-        <v>1.532330827067669</v>
+        <v>2.030612244897959</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>5.586466165413534</v>
+        <v>5.675170068027211</v>
       </c>
     </row>
     <row r="13">
@@ -1083,43 +1083,43 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8333332986111125</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04240282678020702</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>29.2962962962963</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4917825537294564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11.9152315400103</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.2962962962963</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.651074589127687</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.11378002528445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1134,43 +1134,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6363636074380178</v>
+        <v>0.4666666511111116</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05486284275595301</v>
+        <v>0.113207546742613</v>
       </c>
       <c r="G14" t="n">
-        <v>30.52631578947368</v>
+        <v>28.05555555555556</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4344827586206896</v>
+        <v>0.5405940594059406</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38431941923775</v>
+        <v>11.4384598459846</v>
       </c>
       <c r="J14" t="n">
-        <v>30.52631578947368</v>
+        <v>28.05555555555556</v>
       </c>
       <c r="K14" t="n">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L14" t="n">
-        <v>401</v>
+        <v>265</v>
       </c>
       <c r="M14" t="n">
-        <v>1.524137931034483</v>
+        <v>2.110891089108911</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>5.998275862068965</v>
+        <v>6.235643564356436</v>
       </c>
     </row>
     <row r="15">
@@ -1185,43 +1185,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5999999600000027</v>
+        <v>0.272727260330579</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03676470579224337</v>
+        <v>0.07913669036281766</v>
       </c>
       <c r="G15" t="n">
-        <v>30.36842105263158</v>
+        <v>33.73333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4696707105719237</v>
+        <v>0.5474308300395256</v>
       </c>
       <c r="I15" t="n">
-        <v>12.3352367052814</v>
+        <v>13.71230566534914</v>
       </c>
       <c r="J15" t="n">
-        <v>30.36842105263158</v>
+        <v>33.73333333333333</v>
       </c>
       <c r="K15" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L15" t="n">
-        <v>408</v>
+        <v>278</v>
       </c>
       <c r="M15" t="n">
-        <v>1.625649913344887</v>
+        <v>2.08498023715415</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>5.835355285961872</v>
+        <v>6.007905138339921</v>
       </c>
     </row>
     <row r="16">
@@ -1236,43 +1236,43 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5882352854671282</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06355140180976504</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.34782608695652</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4630350194552529</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.124344442564711</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.34782608695652</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.542153047989624</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>5.549286640726329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1287,43 +1287,43 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.3333333055555579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01801801796390986</v>
+        <v>0.05797101421270041</v>
       </c>
       <c r="G17" t="n">
-        <v>31.8125</v>
+        <v>31.28571428571428</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3713163064833006</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="I17" t="n">
-        <v>12.87352652259332</v>
+        <v>12.71702544031311</v>
       </c>
       <c r="J17" t="n">
-        <v>31.8125</v>
+        <v>31.28571428571428</v>
       </c>
       <c r="K17" t="n">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="L17" t="n">
-        <v>333</v>
+        <v>207</v>
       </c>
       <c r="M17" t="n">
-        <v>1.363457760314342</v>
+        <v>1.917808219178082</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>5.367387033398821</v>
+        <v>5.397260273972603</v>
       </c>
     </row>
     <row r="18">
@@ -1338,43 +1338,43 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7333333170370374</v>
+        <v>0.6470588108419841</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06617647049091696</v>
+        <v>0.09640831739809391</v>
       </c>
       <c r="G18" t="n">
-        <v>28.13888888888889</v>
+        <v>26.63888888888889</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4925962487660415</v>
+        <v>0.5620437956204379</v>
       </c>
       <c r="I18" t="n">
-        <v>11.45259405506197</v>
+        <v>10.88037307380373</v>
       </c>
       <c r="J18" t="n">
-        <v>28.13888888888889</v>
+        <v>26.63888888888889</v>
       </c>
       <c r="K18" t="n">
-        <v>499</v>
+        <v>539</v>
       </c>
       <c r="L18" t="n">
-        <v>680</v>
+        <v>529</v>
       </c>
       <c r="M18" t="n">
-        <v>1.676209279368213</v>
+        <v>2.063607924921794</v>
       </c>
       <c r="N18" t="n">
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>5.722606120434353</v>
+        <v>5.734098018769552</v>
       </c>
     </row>
     <row r="19">
@@ -1389,43 +1389,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1428571224489825</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02661596948054764</v>
+        <v>0.07741935433922997</v>
       </c>
       <c r="G19" t="n">
-        <v>30.41666666666667</v>
+        <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4356164383561644</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>12.34091324200913</v>
+        <v>12.22133333333333</v>
       </c>
       <c r="J19" t="n">
-        <v>30.41666666666667</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L19" t="n">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="M19" t="n">
-        <v>1.473972602739726</v>
+        <v>2.093333333333333</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>5.972602739726027</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="20">
@@ -1440,43 +1440,43 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4117646816609011</v>
+        <v>0.3043478128544429</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03863636354855372</v>
+        <v>0.09349593457928482</v>
       </c>
       <c r="G20" t="n">
-        <v>43.71428571428572</v>
+        <v>39</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="I20" t="n">
-        <v>17.62689075630252</v>
+        <v>15.79340659340659</v>
       </c>
       <c r="J20" t="n">
-        <v>43.71428571428572</v>
+        <v>39</v>
       </c>
       <c r="K20" t="n">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="L20" t="n">
-        <v>440</v>
+        <v>246</v>
       </c>
       <c r="M20" t="n">
-        <v>1.295751633986928</v>
+        <v>2.067765567765568</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>5.607843137254902</v>
+        <v>5.706959706959707</v>
       </c>
     </row>
     <row r="21">
@@ -1491,43 +1491,43 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5555555246913597</v>
+        <v>0.3124999902343753</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04724409436418873</v>
+        <v>0.127999999488</v>
       </c>
       <c r="G21" t="n">
-        <v>32.625</v>
+        <v>29.25</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4291187739463602</v>
+        <v>0.5448717948717948</v>
       </c>
       <c r="I21" t="n">
-        <v>13.22164750957854</v>
+        <v>11.91794871794872</v>
       </c>
       <c r="J21" t="n">
-        <v>32.625</v>
+        <v>29.25</v>
       </c>
       <c r="K21" t="n">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L21" t="n">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="M21" t="n">
-        <v>1.467432950191571</v>
+        <v>2.047008547008547</v>
       </c>
       <c r="N21" t="n">
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>5.837164750957855</v>
+        <v>5.839743589743589</v>
       </c>
     </row>
     <row r="22">
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999998750000157</v>
+        <v>0.5294117335640156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02416918421701153</v>
+        <v>0.09042553143390675</v>
       </c>
       <c r="G22" t="n">
-        <v>32.14285714285715</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3711111111111111</v>
+        <v>0.5292553191489362</v>
       </c>
       <c r="I22" t="n">
-        <v>13.0055873015873</v>
+        <v>12.74503546099291</v>
       </c>
       <c r="J22" t="n">
-        <v>32.14285714285715</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="K22" t="n">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="L22" t="n">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
-        <v>1.315555555555556</v>
+        <v>1.962765957446809</v>
       </c>
       <c r="N22" t="n">
         <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>5.286666666666667</v>
+        <v>5.436170212765957</v>
       </c>
     </row>
     <row r="23">
@@ -1593,43 +1593,43 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7777776913580343</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02608695644612476</v>
+        <v>0.08333333292483661</v>
       </c>
       <c r="G23" t="n">
-        <v>38.16666666666666</v>
+        <v>32.08333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>0.445414847161572</v>
+        <v>0.5948051948051948</v>
       </c>
       <c r="I23" t="n">
-        <v>15.4448326055313</v>
+        <v>13.07125541125541</v>
       </c>
       <c r="J23" t="n">
-        <v>38.16666666666666</v>
+        <v>32.08333333333334</v>
       </c>
       <c r="K23" t="n">
+        <v>229</v>
+      </c>
+      <c r="L23" t="n">
         <v>204</v>
       </c>
-      <c r="L23" t="n">
-        <v>345</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.48471615720524</v>
+        <v>2.153246753246753</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>5.799126637554585</v>
+        <v>5.984415584415585</v>
       </c>
     </row>
     <row r="24">
@@ -1644,43 +1644,43 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8181817438016598</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03254437860193971</v>
+        <v>0.08542713524910987</v>
       </c>
       <c r="G24" t="n">
-        <v>36.25</v>
+        <v>31.08333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3977011494252873</v>
+        <v>0.5201072386058981</v>
       </c>
       <c r="I24" t="n">
-        <v>14.65908045977012</v>
+        <v>12.64137622877569</v>
       </c>
       <c r="J24" t="n">
-        <v>36.25</v>
+        <v>31.08333333333333</v>
       </c>
       <c r="K24" t="n">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L24" t="n">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="M24" t="n">
-        <v>1.377011494252874</v>
+        <v>1.983914209115281</v>
       </c>
       <c r="N24" t="n">
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>5.703448275862069</v>
+        <v>5.71313672922252</v>
       </c>
     </row>
     <row r="25">
@@ -1695,43 +1695,43 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.6363636074380178</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0361445782043838</v>
+        <v>0.1134020612711234</v>
       </c>
       <c r="G25" t="n">
-        <v>35.75</v>
+        <v>30.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4289044289044289</v>
+        <v>0.5819672131147541</v>
       </c>
       <c r="I25" t="n">
-        <v>14.47156177156177</v>
+        <v>12.4327868852459</v>
       </c>
       <c r="J25" t="n">
-        <v>35.75</v>
+        <v>30.5</v>
       </c>
       <c r="K25" t="n">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="L25" t="n">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
-        <v>1.428904428904429</v>
+        <v>2.139344262295082</v>
       </c>
       <c r="N25" t="n">
         <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>5.923076923076923</v>
+        <v>6.038251366120218</v>
       </c>
     </row>
     <row r="26">
@@ -1746,43 +1746,43 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7647058373702448</v>
+        <v>0.6153845917159773</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04999999985294118</v>
+        <v>0.1306532656751092</v>
       </c>
       <c r="G26" t="n">
-        <v>36.33333333333334</v>
+        <v>30.91666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4518348623853211</v>
+        <v>0.5983827493261455</v>
       </c>
       <c r="I26" t="n">
-        <v>14.71406727828746</v>
+        <v>12.60601976639713</v>
       </c>
       <c r="J26" t="n">
-        <v>36.33333333333334</v>
+        <v>30.91666666666667</v>
       </c>
       <c r="K26" t="n">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L26" t="n">
-        <v>340</v>
+        <v>199</v>
       </c>
       <c r="M26" t="n">
-        <v>1.431192660550459</v>
+        <v>2.105121293800539</v>
       </c>
       <c r="N26" t="n">
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>5.910550458715596</v>
+        <v>6.053908355795148</v>
       </c>
     </row>
     <row r="27">
@@ -1797,43 +1797,43 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2857142653061239</v>
+        <v>0.1428571377551022</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0381471388606345</v>
+        <v>0.1320754710751157</v>
       </c>
       <c r="G27" t="n">
-        <v>38.07692307692308</v>
+        <v>35.08333333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4161616161616162</v>
+        <v>0.5486935866983373</v>
       </c>
       <c r="I27" t="n">
-        <v>15.39723387723388</v>
+        <v>14.25281076801267</v>
       </c>
       <c r="J27" t="n">
-        <v>38.07692307692308</v>
+        <v>35.08333333333334</v>
       </c>
       <c r="K27" t="n">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L27" t="n">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
-        <v>1.426262626262626</v>
+        <v>2.087885985748219</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>5.66060606060606</v>
+        <v>5.774346793349169</v>
       </c>
     </row>
     <row r="28">
@@ -1848,43 +1848,43 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0.599999940000006</v>
+        <v>0.5384614970414233</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03076923067455621</v>
+        <v>0.0653266328375546</v>
       </c>
       <c r="G28" t="n">
-        <v>34.14285714285715</v>
+        <v>34.08333333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>0.393305439330544</v>
+        <v>0.4914425427872861</v>
       </c>
       <c r="I28" t="n">
-        <v>13.81446503287508</v>
+        <v>13.82991035044825</v>
       </c>
       <c r="J28" t="n">
-        <v>34.14285714285715</v>
+        <v>34.08333333333334</v>
       </c>
       <c r="K28" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="L28" t="n">
-        <v>325</v>
+        <v>199</v>
       </c>
       <c r="M28" t="n">
-        <v>1.412133891213389</v>
+        <v>1.965770171149144</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>5.692468619246862</v>
+        <v>5.87041564792176</v>
       </c>
     </row>
     <row r="29">
@@ -1899,43 +1899,43 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9999999411764739</v>
+        <v>0.5652173667296797</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03728070167263004</v>
+        <v>0.07348242788024784</v>
       </c>
       <c r="G29" t="n">
-        <v>38.52941176470588</v>
+        <v>36</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4122137404580153</v>
+        <v>0.4982638888888889</v>
       </c>
       <c r="I29" t="n">
-        <v>15.57665020206556</v>
+        <v>14.59930555555555</v>
       </c>
       <c r="J29" t="n">
-        <v>38.52941176470588</v>
+        <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L29" t="n">
-        <v>456</v>
+        <v>313</v>
       </c>
       <c r="M29" t="n">
-        <v>1.435114503816794</v>
+        <v>1.84375</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>5.293129770992366</v>
+        <v>5.381944444444445</v>
       </c>
     </row>
     <row r="30">
@@ -1950,43 +1950,43 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5294117335640156</v>
+        <v>0.3636363471074388</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04314720801231673</v>
+        <v>0.08270676660636554</v>
       </c>
       <c r="G30" t="n">
-        <v>32.68421052631579</v>
+        <v>30.61111111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3735909822866345</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="I30" t="n">
-        <v>13.22312060344097</v>
+        <v>12.42375478927203</v>
       </c>
       <c r="J30" t="n">
-        <v>32.68421052631579</v>
+        <v>30.61111111111111</v>
       </c>
       <c r="K30" t="n">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L30" t="n">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
-        <v>1.439613526570048</v>
+        <v>1.918330308529945</v>
       </c>
       <c r="N30" t="n">
         <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>5.608695652173913</v>
+        <v>5.713248638838476</v>
       </c>
     </row>
     <row r="31">
@@ -2001,43 +2001,43 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>0.679999972800001</v>
+        <v>0.3333333232323236</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04725897911671271</v>
+        <v>0.08776595721338841</v>
       </c>
       <c r="G31" t="n">
-        <v>26.96875</v>
+        <v>25.90322580645161</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4055619930475087</v>
+        <v>0.4744707347447074</v>
       </c>
       <c r="I31" t="n">
-        <v>10.94972479721901</v>
+        <v>10.55107861647853</v>
       </c>
       <c r="J31" t="n">
-        <v>26.96875</v>
+        <v>25.90322580645161</v>
       </c>
       <c r="K31" t="n">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="L31" t="n">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="M31" t="n">
-        <v>1.469293163383546</v>
+        <v>1.881693648816936</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>5.399768250289688</v>
+        <v>5.356164383561643</v>
       </c>
     </row>
     <row r="32">
@@ -2055,40 +2055,40 @@
         <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3333333111111126</v>
+        <v>0.05263157617728546</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03605769222101516</v>
+        <v>0.06713780895004308</v>
       </c>
       <c r="G32" t="n">
-        <v>25.20833333333333</v>
+        <v>24.09090909090909</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4132231404958678</v>
+        <v>0.5113207547169811</v>
       </c>
       <c r="I32" t="n">
-        <v>10.24862258953168</v>
+        <v>9.840891938250429</v>
       </c>
       <c r="J32" t="n">
-        <v>25.20833333333333</v>
+        <v>24.09090909090909</v>
       </c>
       <c r="K32" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L32" t="n">
-        <v>416</v>
+        <v>283</v>
       </c>
       <c r="M32" t="n">
-        <v>1.44297520661157</v>
+        <v>1.926415094339623</v>
       </c>
       <c r="N32" t="n">
         <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>5.272727272727272</v>
+        <v>5.367924528301887</v>
       </c>
     </row>
     <row r="33">
@@ -2103,43 +2103,43 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5806451519250783</v>
+        <v>0.5151515073461893</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09951845890928017</v>
+        <v>0.13441955166106</v>
       </c>
       <c r="G33" t="n">
-        <v>28.21212121212121</v>
+        <v>27.67741935483871</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5979020979020979</v>
       </c>
       <c r="I33" t="n">
-        <v>11.48893011750155</v>
+        <v>11.31012858109632</v>
       </c>
       <c r="J33" t="n">
-        <v>28.21212121212121</v>
+        <v>27.67741935483871</v>
       </c>
       <c r="K33" t="n">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="L33" t="n">
-        <v>623</v>
+        <v>491</v>
       </c>
       <c r="M33" t="n">
-        <v>1.693877551020408</v>
+        <v>2.094405594405595</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>5.920515574650913</v>
+        <v>5.998834498834499</v>
       </c>
     </row>
     <row r="34">
@@ -2154,43 +2154,43 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6999999650000017</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03350083746482272</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30.87878787878788</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3287536800785084</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>12.48301662354656</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.87878787878788</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.29342492639843</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5.297350343473994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2205,43 +2205,43 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4166666493055562</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06539509518965914</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>25.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4266917293233083</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.30401002506266</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>25.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.43796992481203</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.580827067669173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2256,43 +2256,43 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2063492030738222</v>
+        <v>0.1830985889704424</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04726181541840824</v>
+        <v>0.07968574626297896</v>
       </c>
       <c r="G36" t="n">
-        <v>18.25714285714286</v>
+        <v>17.59047619047619</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3844548774126239</v>
+        <v>0.4618299945858149</v>
       </c>
       <c r="I36" t="n">
-        <v>7.456639093822192</v>
+        <v>7.220922474024803</v>
       </c>
       <c r="J36" t="n">
-        <v>18.25714285714286</v>
+        <v>17.59047619047619</v>
       </c>
       <c r="K36" t="n">
-        <v>737</v>
+        <v>853</v>
       </c>
       <c r="L36" t="n">
-        <v>1333</v>
+        <v>891</v>
       </c>
       <c r="M36" t="n">
-        <v>1.28169014084507</v>
+        <v>1.779642663779101</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>4.834115805946792</v>
+        <v>4.835408770979967</v>
       </c>
     </row>
     <row r="37">
@@ -2307,43 +2307,43 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.09677419042663901</v>
+        <v>-0.1499999962500001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04626865664736021</v>
+        <v>0.08368200819313387</v>
       </c>
       <c r="G37" t="n">
-        <v>24.92682926829268</v>
+        <v>23.9</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3816046966731898</v>
+        <v>0.4696652719665272</v>
       </c>
       <c r="I37" t="n">
-        <v>10.12337358598635</v>
+        <v>9.74786610878661</v>
       </c>
       <c r="J37" t="n">
-        <v>24.92682926829268</v>
+        <v>23.9</v>
       </c>
       <c r="K37" t="n">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="L37" t="n">
-        <v>670</v>
+        <v>478</v>
       </c>
       <c r="M37" t="n">
-        <v>1.38160469667319</v>
+        <v>1.858786610878661</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>5.081213307240705</v>
+        <v>5.085774058577406</v>
       </c>
     </row>
     <row r="38">
@@ -2358,43 +2358,43 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5999999800000007</v>
+        <v>0.4857142718367351</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04225352106724856</v>
+        <v>0.07216494830481454</v>
       </c>
       <c r="G38" t="n">
-        <v>22.88</v>
+        <v>22.625</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4073426573426573</v>
+        <v>0.4825046040515654</v>
       </c>
       <c r="I38" t="n">
-        <v>9.314937062937062</v>
+        <v>9.243001841620627</v>
       </c>
       <c r="J38" t="n">
-        <v>22.88</v>
+        <v>22.625</v>
       </c>
       <c r="K38" t="n">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="L38" t="n">
-        <v>710</v>
+        <v>485</v>
       </c>
       <c r="M38" t="n">
-        <v>1.48951048951049</v>
+        <v>1.905156537753223</v>
       </c>
       <c r="N38" t="n">
         <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>5.173076923076923</v>
+        <v>5.22744014732965</v>
       </c>
     </row>
     <row r="39">
@@ -2418,34 +2418,34 @@
         <v>0.8666666088888928</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03957783630718249</v>
+        <v>0.06172839480770208</v>
       </c>
       <c r="G39" t="n">
-        <v>39.4</v>
+        <v>35.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3959390862944163</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="I39" t="n">
-        <v>15.91837563451777</v>
+        <v>14.25727272727273</v>
       </c>
       <c r="J39" t="n">
-        <v>39.4</v>
+        <v>35.2</v>
       </c>
       <c r="K39" t="n">
         <v>234</v>
       </c>
       <c r="L39" t="n">
-        <v>379</v>
+        <v>243</v>
       </c>
       <c r="M39" t="n">
-        <v>1.419627749576988</v>
+        <v>1.801136363636364</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>5.121827411167513</v>
+        <v>5.028409090909091</v>
       </c>
     </row>
     <row r="40">
@@ -2460,43 +2460,43 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7777777489711944</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03284671528850765</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.05813953488372</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2679217958001448</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.530424532273547</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.05813953488372</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.112961622013034</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>4.112961622013034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2520,34 +2520,34 @@
         <v>-0.3333332222222593</v>
       </c>
       <c r="F41" t="n">
-        <v>0.025210083821764</v>
+        <v>0.05263157802400741</v>
       </c>
       <c r="G41" t="n">
-        <v>33.2</v>
+        <v>108</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3433734939759036</v>
+        <v>0.5</v>
       </c>
       <c r="I41" t="n">
-        <v>13.41734939759036</v>
+        <v>43.40000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>33.2</v>
+        <v>108</v>
       </c>
       <c r="K41" t="n">
+        <v>54</v>
+      </c>
+      <c r="L41" t="n">
         <v>57</v>
       </c>
-      <c r="L41" t="n">
-        <v>119</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.36144578313253</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5.475903614457831</v>
+        <v>5.787037037037037</v>
       </c>
     </row>
     <row r="42">
@@ -2562,43 +2562,43 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6923076390532585</v>
+        <v>0.4117646816609011</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03812316704362707</v>
+        <v>0.07456140318174823</v>
       </c>
       <c r="G42" t="n">
-        <v>47.45454545454545</v>
+        <v>45.5</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4022988505747127</v>
+        <v>0.4967032967032967</v>
       </c>
       <c r="I42" t="n">
-        <v>19.14273772204806</v>
+        <v>18.39868131868132</v>
       </c>
       <c r="J42" t="n">
-        <v>47.45454545454545</v>
+        <v>45.5</v>
       </c>
       <c r="K42" t="n">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L42" t="n">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="M42" t="n">
-        <v>1.402298850574713</v>
+        <v>1.837362637362637</v>
       </c>
       <c r="N42" t="n">
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>5.147509578544061</v>
+        <v>5.241758241758242</v>
       </c>
     </row>
     <row r="43">
@@ -2613,43 +2613,43 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.99999990000001</v>
+        <v>0.5555555246913597</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03999999984</v>
+        <v>0.1168831161241356</v>
       </c>
       <c r="G43" t="n">
-        <v>30.23076923076923</v>
+        <v>28.58333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3409669211195929</v>
+        <v>0.4227405247813411</v>
       </c>
       <c r="I43" t="n">
-        <v>12.22869446075553</v>
+        <v>11.60242954324587</v>
       </c>
       <c r="J43" t="n">
-        <v>30.23076923076923</v>
+        <v>28.58333333333333</v>
       </c>
       <c r="K43" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L43" t="n">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="M43" t="n">
-        <v>1.305343511450382</v>
+        <v>1.693877551020408</v>
       </c>
       <c r="N43" t="n">
         <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>4.918575063613232</v>
+        <v>4.854227405247814</v>
       </c>
     </row>
     <row r="44">
@@ -2664,43 +2664,43 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.2727272479338866</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01935483864724246</v>
+        <v>0.06010928928902028</v>
       </c>
       <c r="G44" t="n">
-        <v>38.83333333333334</v>
+        <v>33.91666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3991416309012876</v>
+        <v>0.4668304668304668</v>
       </c>
       <c r="I44" t="n">
-        <v>15.69298998569385</v>
+        <v>13.75339885339885</v>
       </c>
       <c r="J44" t="n">
-        <v>38.83333333333334</v>
+        <v>33.91666666666666</v>
       </c>
       <c r="K44" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L44" t="n">
-        <v>310</v>
+        <v>183</v>
       </c>
       <c r="M44" t="n">
-        <v>1.349785407725322</v>
+        <v>1.85012285012285</v>
       </c>
       <c r="N44" t="n">
         <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>5.465665236051502</v>
+        <v>5.501228501228502</v>
       </c>
     </row>
     <row r="45">
@@ -2718,40 +2718,40 @@
         <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5555555246913597</v>
+        <v>0.399999980000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05901639324912658</v>
+        <v>0.09708737816947875</v>
       </c>
       <c r="G45" t="n">
-        <v>19.3448275862069</v>
+        <v>19.6</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3279857397504456</v>
+        <v>0.3959183673469387</v>
       </c>
       <c r="I45" t="n">
-        <v>7.869125330382937</v>
+        <v>7.998367346938777</v>
       </c>
       <c r="J45" t="n">
-        <v>19.3448275862069</v>
+        <v>19.6</v>
       </c>
       <c r="K45" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L45" t="n">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="M45" t="n">
-        <v>1.260249554367201</v>
+        <v>1.608163265306122</v>
       </c>
       <c r="N45" t="n">
         <v>16</v>
       </c>
       <c r="O45" t="n">
-        <v>4.641711229946524</v>
+        <v>4.544897959183674</v>
       </c>
     </row>
     <row r="46">
@@ -2766,43 +2766,43 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5384615177514801</v>
+        <v>0.3548386982310097</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07624633408725415</v>
+        <v>0.1390134522914195</v>
       </c>
       <c r="G46" t="n">
-        <v>21.06896551724138</v>
+        <v>19.85185185185185</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3109656301145663</v>
+        <v>0.3899253731343283</v>
       </c>
       <c r="I46" t="n">
-        <v>8.551972458942378</v>
+        <v>8.096710889994473</v>
       </c>
       <c r="J46" t="n">
-        <v>21.06896551724138</v>
+        <v>19.85185185185185</v>
       </c>
       <c r="K46" t="n">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L46" t="n">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="M46" t="n">
-        <v>1.268412438625204</v>
+        <v>1.66044776119403</v>
       </c>
       <c r="N46" t="n">
         <v>6</v>
       </c>
       <c r="O46" t="n">
-        <v>4.757774140752864</v>
+        <v>4.688432835820896</v>
       </c>
     </row>
     <row r="47">
@@ -2817,43 +2817,43 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3333332962963004</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0244565216726725</v>
+        <v>0.05857740561264684</v>
       </c>
       <c r="G47" t="n">
-        <v>23.04</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3871527777777778</v>
+        <v>0.4551020408163265</v>
       </c>
       <c r="I47" t="n">
-        <v>9.370861111111111</v>
+        <v>8.703779946761314</v>
       </c>
       <c r="J47" t="n">
-        <v>23.04</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="K47" t="n">
         <v>223</v>
       </c>
       <c r="L47" t="n">
-        <v>368</v>
+        <v>239</v>
       </c>
       <c r="M47" t="n">
-        <v>1.418402777777778</v>
+        <v>1.814285714285714</v>
       </c>
       <c r="N47" t="n">
         <v>4</v>
       </c>
       <c r="O47" t="n">
-        <v>5.026041666666667</v>
+        <v>5.087755102040816</v>
       </c>
     </row>
     <row r="48">
@@ -2868,43 +2868,43 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>8</v>
+      </c>
+      <c r="D48" t="n">
         <v>6</v>
       </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
       <c r="E48" t="n">
-        <v>0.7142856122449125</v>
+        <v>0.142857132653062</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02380952372853903</v>
+        <v>0.07777777734567902</v>
       </c>
       <c r="G48" t="n">
-        <v>42.5</v>
+        <v>35.3</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3905882352941176</v>
+        <v>0.4872521246458923</v>
       </c>
       <c r="I48" t="n">
-        <v>17.15623529411765</v>
+        <v>14.31490084985836</v>
       </c>
       <c r="J48" t="n">
-        <v>42.5</v>
+        <v>35.3</v>
       </c>
       <c r="K48" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L48" t="n">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="M48" t="n">
-        <v>1.345882352941177</v>
+        <v>1.844192634560907</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>5.341176470588235</v>
+        <v>5.218130311614731</v>
       </c>
     </row>
     <row r="49">
@@ -2919,43 +2919,43 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
         <v>5</v>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
       <c r="E49" t="n">
-        <v>0.6666665555555741</v>
+        <v>0.09090908264462885</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03061224474177426</v>
+        <v>0.09565217308128546</v>
       </c>
       <c r="G49" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.502283105022831</v>
       </c>
       <c r="I49" t="n">
-        <v>36.95072463768116</v>
+        <v>29.40091324200913</v>
       </c>
       <c r="J49" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="K49" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L49" t="n">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="M49" t="n">
-        <v>1.27536231884058</v>
+        <v>1.881278538812785</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>5.409420289855072</v>
+        <v>5.525114155251141</v>
       </c>
     </row>
     <row r="50">
@@ -2970,43 +2970,43 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5555554938271674</v>
+        <v>0.142857132653062</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04838709651404787</v>
+        <v>0.1428571413994169</v>
       </c>
       <c r="G50" t="n">
-        <v>33.5</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3880597014925373</v>
+        <v>0.495</v>
       </c>
       <c r="I50" t="n">
-        <v>13.55522388059702</v>
+        <v>13.53133333333333</v>
       </c>
       <c r="J50" t="n">
-        <v>33.5</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="K50" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L50" t="n">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="M50" t="n">
-        <v>1.395522388059701</v>
+        <v>2.005</v>
       </c>
       <c r="N50" t="n">
         <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>5.67910447761194</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="51">
@@ -3021,43 +3021,43 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.166666652777779</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03124999983723958</v>
+        <v>0.1188118800117636</v>
       </c>
       <c r="G51" t="n">
-        <v>44.16666666666666</v>
+        <v>40.6</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3962264150943396</v>
+        <v>0.4729064039408867</v>
       </c>
       <c r="I51" t="n">
-        <v>17.8251572327044</v>
+        <v>16.42916256157636</v>
       </c>
       <c r="J51" t="n">
-        <v>44.16666666666666</v>
+        <v>40.6</v>
       </c>
       <c r="K51" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L51" t="n">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="M51" t="n">
-        <v>1.418867924528302</v>
+        <v>1.822660098522167</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>5.388679245283019</v>
+        <v>5.157635467980295</v>
       </c>
     </row>
     <row r="52">
@@ -3072,43 +3072,43 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9999998750000157</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03053435102849484</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>36.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3672456575682382</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>14.80144371757275</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>36.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.317617866004963</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>5.156327543424317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3123,43 +3123,43 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9999999166666736</v>
+        <v>0.6470587854671302</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03883495133063122</v>
+        <v>0.08994708947117942</v>
       </c>
       <c r="G53" t="n">
-        <v>29.35294117647059</v>
+        <v>28.4</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3366733466933868</v>
+        <v>0.4248826291079812</v>
       </c>
       <c r="I53" t="n">
-        <v>11.87584580926559</v>
+        <v>11.52995305164319</v>
       </c>
       <c r="J53" t="n">
-        <v>29.35294117647059</v>
+        <v>28.4</v>
       </c>
       <c r="K53" t="n">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L53" t="n">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="M53" t="n">
-        <v>1.314629258517034</v>
+        <v>1.678403755868545</v>
       </c>
       <c r="N53" t="n">
         <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>4.741482965931864</v>
+        <v>4.737089201877934</v>
       </c>
     </row>
     <row r="54">
@@ -3177,40 +3177,40 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.07692307100591762</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03571428553206997</v>
+        <v>0.1130434772778828</v>
       </c>
       <c r="G54" t="n">
-        <v>35.875</v>
+        <v>31.85714285714286</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.5112107623318386</v>
       </c>
       <c r="I54" t="n">
-        <v>14.50609756097561</v>
+        <v>12.94734144778988</v>
       </c>
       <c r="J54" t="n">
-        <v>35.875</v>
+        <v>31.85714285714286</v>
       </c>
       <c r="K54" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L54" t="n">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="M54" t="n">
-        <v>1.337979094076655</v>
+        <v>1.869955156950673</v>
       </c>
       <c r="N54" t="n">
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>5.250871080139373</v>
+        <v>5.26457399103139</v>
       </c>
     </row>
     <row r="55">
@@ -3228,40 +3228,40 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-0.07692307100591762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03821656038784535</v>
+        <v>0.06132075442773229</v>
       </c>
       <c r="G55" t="n">
-        <v>24.81818181818182</v>
+        <v>22.76190476190476</v>
       </c>
       <c r="H55" t="n">
-        <v>0.36996336996337</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="I55" t="n">
-        <v>10.07525807525808</v>
+        <v>9.278820482167763</v>
       </c>
       <c r="J55" t="n">
-        <v>24.81818181818182</v>
+        <v>22.76190476190476</v>
       </c>
       <c r="K55" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L55" t="n">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="M55" t="n">
-        <v>1.406593406593407</v>
+        <v>1.723849372384937</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
-        <v>5.069597069597069</v>
+        <v>5.083682008368201</v>
       </c>
     </row>
     <row r="56">
@@ -3276,43 +3276,43 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>0.636363578512402</v>
+        <v>0.2222222098765439</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03047091404301686</v>
+        <v>0.07758620656212842</v>
       </c>
       <c r="G56" t="n">
-        <v>32.61111111111111</v>
+        <v>34.6</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3645655877342419</v>
+        <v>0.4277456647398844</v>
       </c>
       <c r="I56" t="n">
-        <v>13.19027067953814</v>
+        <v>14.01109826589596</v>
       </c>
       <c r="J56" t="n">
-        <v>32.61111111111111</v>
+        <v>34.6</v>
       </c>
       <c r="K56" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L56" t="n">
-        <v>361</v>
+        <v>232</v>
       </c>
       <c r="M56" t="n">
-        <v>1.364565587734242</v>
+        <v>1.714836223506744</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>4.972742759795571</v>
+        <v>4.8747591522158</v>
       </c>
     </row>
     <row r="57">
@@ -3327,43 +3327,43 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>13</v>
+      </c>
+      <c r="D57" t="n">
         <v>11</v>
       </c>
-      <c r="D57" t="n">
-        <v>6</v>
-      </c>
       <c r="E57" t="n">
-        <v>0.2941176297577865</v>
+        <v>0.08333332986111125</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07488986751149838</v>
+        <v>0.1643835605179208</v>
       </c>
       <c r="G57" t="n">
-        <v>35.9</v>
+        <v>38.375</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3788300835654596</v>
+        <v>0.498371335504886</v>
       </c>
       <c r="I57" t="n">
-        <v>14.51153203342619</v>
+        <v>15.54934853420195</v>
       </c>
       <c r="J57" t="n">
-        <v>35.9</v>
+        <v>38.375</v>
       </c>
       <c r="K57" t="n">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="L57" t="n">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="M57" t="n">
-        <v>1.423398328690808</v>
+        <v>1.879478827361563</v>
       </c>
       <c r="N57" t="n">
         <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>5.114206128133705</v>
+        <v>5.188925081433225</v>
       </c>
     </row>
     <row r="58">
@@ -3378,43 +3378,43 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6249999609375024</v>
+        <v>0.3913043308128552</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05047318596065241</v>
+        <v>0.1179487173438527</v>
       </c>
       <c r="G58" t="n">
-        <v>36.2</v>
+        <v>31.86666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3517495395948435</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="I58" t="n">
-        <v>14.62069981583794</v>
+        <v>12.91068340306834</v>
       </c>
       <c r="J58" t="n">
-        <v>36.2</v>
+        <v>31.86666666666667</v>
       </c>
       <c r="K58" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L58" t="n">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c r="M58" t="n">
-        <v>1.388581952117864</v>
+        <v>1.679916317991632</v>
       </c>
       <c r="N58" t="n">
         <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>4.867403314917127</v>
+        <v>4.847280334728033</v>
       </c>
     </row>
     <row r="59">
@@ -3429,43 +3429,43 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7142856632653098</v>
+        <v>0.3333333174603182</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04334365311658312</v>
+        <v>0.09952606587902338</v>
       </c>
       <c r="G59" t="n">
-        <v>21.5</v>
+        <v>20.8695652173913</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3059033989266547</v>
+        <v>0.3979166666666666</v>
       </c>
       <c r="I59" t="n">
-        <v>8.722361359570662</v>
+        <v>8.506992753623189</v>
       </c>
       <c r="J59" t="n">
-        <v>21.5</v>
+        <v>20.8695652173913</v>
       </c>
       <c r="K59" t="n">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L59" t="n">
-        <v>323</v>
+        <v>211</v>
       </c>
       <c r="M59" t="n">
-        <v>1.336314847942755</v>
+        <v>1.716666666666667</v>
       </c>
       <c r="N59" t="n">
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>4.828264758497316</v>
+        <v>4.895833333333333</v>
       </c>
     </row>
     <row r="60">
@@ -3480,43 +3480,43 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.199999980000002</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04545454524793389</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>23.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3734939759036144</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>9.635111876075733</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>23.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.358433734939759</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>5.355421686746988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3531,43 +3531,43 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>0.99999980000004</v>
+        <v>0.2727272479338866</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0312499998046875</v>
+        <v>0.1325301188851793</v>
       </c>
       <c r="G61" t="n">
-        <v>32.71428571428572</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3668122270742358</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="I61" t="n">
-        <v>13.23243917654398</v>
+        <v>11.5356862745098</v>
       </c>
       <c r="J61" t="n">
-        <v>32.71428571428572</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="K61" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L61" t="n">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="M61" t="n">
-        <v>1.349344978165939</v>
+        <v>1.864705882352941</v>
       </c>
       <c r="N61" t="n">
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>5.100436681222708</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="62">
@@ -3582,43 +3582,43 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4999999375000079</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04278074843432755</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>34.625</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3826714801444043</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>14.00306859205776</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>34.625</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1.451263537906137</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>5.285198555956678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3633,43 +3633,43 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3333333055555579</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.05911330020141232</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>34.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3653846153846154</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>14.01282051282051</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>34.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.394230769230769</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>5.147435897435898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3684,43 +3684,43 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9999998888889013</v>
+        <v>0.3333333055555579</v>
       </c>
       <c r="F64" t="n">
-        <v>0.05027932932804844</v>
+        <v>0.1212121199877564</v>
       </c>
       <c r="G64" t="n">
-        <v>32</v>
+        <v>31.16666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0.390625</v>
+        <v>0.5401069518716578</v>
       </c>
       <c r="I64" t="n">
-        <v>12.95625</v>
+        <v>12.68270944741533</v>
       </c>
       <c r="J64" t="n">
-        <v>32</v>
+        <v>31.16666666666667</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L64" t="n">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="M64" t="n">
-        <v>1.3828125</v>
+        <v>1.983957219251337</v>
       </c>
       <c r="N64" t="n">
         <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>5.41796875</v>
+        <v>5.689839572192513</v>
       </c>
     </row>
     <row r="65">
@@ -3738,40 +3738,40 @@
         <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>0.166666652777779</v>
+        <v>-0.2631578808864273</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05429864228824144</v>
+        <v>0.1376811584226003</v>
       </c>
       <c r="G65" t="n">
-        <v>26</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4289940828402367</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I65" t="n">
-        <v>10.5715976331361</v>
+        <v>9.27843137254902</v>
       </c>
       <c r="J65" t="n">
-        <v>26</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="K65" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L65" t="n">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="M65" t="n">
-        <v>1.523668639053254</v>
+        <v>1.922794117647059</v>
       </c>
       <c r="N65" t="n">
         <v>4</v>
       </c>
       <c r="O65" t="n">
-        <v>5.393491124260355</v>
+        <v>5.488970588235294</v>
       </c>
     </row>
     <row r="66">
@@ -3789,40 +3789,40 @@
         <v>14</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9999999285714337</v>
+        <v>0.5555555246913597</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04347826073453957</v>
+        <v>0.08653846112241124</v>
       </c>
       <c r="G66" t="n">
-        <v>25.57142857142857</v>
+        <v>23.55</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3463687150837989</v>
+        <v>0.4309978768577495</v>
       </c>
       <c r="I66" t="n">
-        <v>10.36711891460495</v>
+        <v>9.5923991507431</v>
       </c>
       <c r="J66" t="n">
-        <v>25.57142857142857</v>
+        <v>23.55</v>
       </c>
       <c r="K66" t="n">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L66" t="n">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="M66" t="n">
-        <v>1.327746741154562</v>
+        <v>1.717622080679406</v>
       </c>
       <c r="N66" t="n">
         <v>11</v>
       </c>
       <c r="O66" t="n">
-        <v>4.914338919925513</v>
+        <v>4.942675159235669</v>
       </c>
     </row>
     <row r="67">
@@ -3837,43 +3837,43 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>0.684210490304711</v>
+        <v>0.4399999824000007</v>
       </c>
       <c r="F67" t="n">
-        <v>0.05337078636693599</v>
+        <v>0.0999999996</v>
       </c>
       <c r="G67" t="n">
-        <v>25.125</v>
+        <v>23.90909090909091</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3747927031509121</v>
+        <v>0.4714828897338403</v>
       </c>
       <c r="I67" t="n">
-        <v>10.19991708126037</v>
+        <v>9.7522295195299</v>
       </c>
       <c r="J67" t="n">
-        <v>25.125</v>
+        <v>23.90909090909091</v>
       </c>
       <c r="K67" t="n">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L67" t="n">
-        <v>356</v>
+        <v>250</v>
       </c>
       <c r="M67" t="n">
-        <v>1.386401326699834</v>
+        <v>1.807984790874525</v>
       </c>
       <c r="N67" t="n">
         <v>15</v>
       </c>
       <c r="O67" t="n">
-        <v>5.167495854063018</v>
+        <v>5.231939163498099</v>
       </c>
     </row>
     <row r="68">
@@ -3888,43 +3888,43 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2727272479338866</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02842377253637268</v>
+        <v>0.06691449789251117</v>
       </c>
       <c r="G68" t="n">
-        <v>30.35</v>
+        <v>26.95</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4151565074135091</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="I68" t="n">
-        <v>12.3060626029654</v>
+        <v>10.97591836734694</v>
       </c>
       <c r="J68" t="n">
-        <v>30.35</v>
+        <v>26.95</v>
       </c>
       <c r="K68" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="L68" t="n">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="M68" t="n">
-        <v>1.411861614497529</v>
+        <v>1.749536178107607</v>
       </c>
       <c r="N68" t="n">
         <v>12</v>
       </c>
       <c r="O68" t="n">
-        <v>4.955518945634267</v>
+        <v>4.979591836734694</v>
       </c>
     </row>
     <row r="69">
@@ -3939,43 +3939,43 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1428571377551022</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07017543842061294</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>25.03703703703704</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.393491124260355</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>10.17221126451896</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>25.03703703703704</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1.394970414201183</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>4.84319526627219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3990,43 +3990,43 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5555554938271674</v>
+        <v>0.4545454132231443</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02556818174554494</v>
+        <v>0.04564315333758028</v>
       </c>
       <c r="G70" t="n">
-        <v>27.4</v>
+        <v>24.89473684210526</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4087591240875912</v>
+        <v>0.507399577167019</v>
       </c>
       <c r="I70" t="n">
-        <v>11.12350364963504</v>
+        <v>10.16085456770891</v>
       </c>
       <c r="J70" t="n">
-        <v>27.4</v>
+        <v>24.89473684210526</v>
       </c>
       <c r="K70" t="n">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="L70" t="n">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="M70" t="n">
-        <v>1.39963503649635</v>
+        <v>1.896405919661734</v>
       </c>
       <c r="N70" t="n">
         <v>14</v>
       </c>
       <c r="O70" t="n">
-        <v>5.195255474452555</v>
+        <v>5.25369978858351</v>
       </c>
     </row>
     <row r="71">
@@ -4041,43 +4041,43 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9999999090909174</v>
+        <v>0.7142856632653098</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03654485037692741</v>
+        <v>0.06730769198409764</v>
       </c>
       <c r="G71" t="n">
-        <v>35.15384615384615</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>0.450765864332604</v>
+        <v>0.5077319587628866</v>
       </c>
       <c r="I71" t="n">
-        <v>14.2418448072715</v>
+        <v>13.13642611683849</v>
       </c>
       <c r="J71" t="n">
-        <v>35.15384615384615</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="K71" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L71" t="n">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="M71" t="n">
-        <v>1.522975929978118</v>
+        <v>1.835051546391752</v>
       </c>
       <c r="N71" t="n">
         <v>6</v>
       </c>
       <c r="O71" t="n">
-        <v>5.336980306345733</v>
+        <v>5.311855670103093</v>
       </c>
     </row>
     <row r="72">
@@ -4092,43 +4092,43 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7333333088888897</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04942339365828106</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>27.41176470588235</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.434549356223176</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>11.13852562484221</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>27.41176470588235</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>1.53862660944206</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>5.309012875536481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4143,43 +4143,43 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" t="n">
         <v>5</v>
       </c>
-      <c r="D73" t="n">
-        <v>2</v>
-      </c>
       <c r="E73" t="n">
-        <v>0.4285713673469475</v>
+        <v>0.166666652777779</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0307017542513081</v>
+        <v>0.08053691221116166</v>
       </c>
       <c r="G73" t="n">
-        <v>48.625</v>
+        <v>64.2</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3727506426735219</v>
+        <v>0.4454828660436137</v>
       </c>
       <c r="I73" t="n">
-        <v>19.59910025706941</v>
+        <v>25.85819314641745</v>
       </c>
       <c r="J73" t="n">
-        <v>48.625</v>
+        <v>64.2</v>
       </c>
       <c r="K73" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L73" t="n">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="M73" t="n">
-        <v>1.395886889460154</v>
+        <v>1.728971962616823</v>
       </c>
       <c r="N73" t="n">
         <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>4.938303341902314</v>
+        <v>4.847352024922118</v>
       </c>
     </row>
     <row r="74">
@@ -4194,43 +4194,43 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9999998750000157</v>
+        <v>0.5384614970414233</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02826855113686024</v>
+        <v>0.06161137411558591</v>
       </c>
       <c r="G74" t="n">
-        <v>27.22222222222222</v>
+        <v>27.4375</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.4555808656036446</v>
       </c>
       <c r="I74" t="n">
-        <v>11.05215419501134</v>
+        <v>11.15723234624146</v>
       </c>
       <c r="J74" t="n">
-        <v>27.22222222222222</v>
+        <v>27.4375</v>
       </c>
       <c r="K74" t="n">
         <v>200</v>
       </c>
       <c r="L74" t="n">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="M74" t="n">
-        <v>1.483673469387755</v>
+        <v>1.788154897494305</v>
       </c>
       <c r="N74" t="n">
         <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>5.014285714285714</v>
+        <v>4.988610478359909</v>
       </c>
     </row>
     <row r="75">
@@ -4245,43 +4245,43 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-0.1428571224489825</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01333333324444444</v>
+        <v>0.09333333208888892</v>
       </c>
       <c r="G75" t="n">
-        <v>70.33333333333333</v>
+        <v>70</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4407582938388626</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I75" t="n">
-        <v>28.30963665086888</v>
+        <v>28.21428571428572</v>
       </c>
       <c r="J75" t="n">
-        <v>70.33333333333333</v>
+        <v>70</v>
       </c>
       <c r="K75" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="L75" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M75" t="n">
-        <v>1.563981042654028</v>
+        <v>1.864285714285714</v>
       </c>
       <c r="N75" t="n">
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>5.251184834123222</v>
+        <v>5.207142857142857</v>
       </c>
     </row>
     <row r="76">
@@ -4296,43 +4296,43 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5555554938271674</v>
+        <v>0.2857142653061239</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03272727260826446</v>
+        <v>0.07954545409349174</v>
       </c>
       <c r="G76" t="n">
-        <v>33.92857142857143</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3852631578947369</v>
+        <v>0.4317073170731707</v>
       </c>
       <c r="I76" t="n">
-        <v>13.72553383458647</v>
+        <v>11.88696864111498</v>
       </c>
       <c r="J76" t="n">
-        <v>33.92857142857143</v>
+        <v>29.28571428571428</v>
       </c>
       <c r="K76" t="n">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L76" t="n">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="M76" t="n">
-        <v>1.448421052631579</v>
+        <v>1.719512195121951</v>
       </c>
       <c r="N76" t="n">
         <v>4</v>
       </c>
       <c r="O76" t="n">
-        <v>4.978947368421053</v>
+        <v>4.95609756097561</v>
       </c>
     </row>
     <row r="77">
@@ -4347,43 +4347,43 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7142856122449125</v>
+        <v>0.3846153550295881</v>
       </c>
       <c r="F77" t="n">
-        <v>0.02464788723715533</v>
+        <v>0.06989247274251359</v>
       </c>
       <c r="G77" t="n">
-        <v>26.5</v>
+        <v>28.91666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4433962264150944</v>
+        <v>0.5187319884726225</v>
       </c>
       <c r="I77" t="n">
-        <v>10.77735849056604</v>
+        <v>11.77415946205572</v>
       </c>
       <c r="J77" t="n">
-        <v>26.5</v>
+        <v>28.91666666666667</v>
       </c>
       <c r="K77" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L77" t="n">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="M77" t="n">
-        <v>1.47877358490566</v>
+        <v>1.821325648414986</v>
       </c>
       <c r="N77" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O77" t="n">
-        <v>5.308962264150943</v>
+        <v>5.247838616714698</v>
       </c>
     </row>
     <row r="78">
@@ -4398,43 +4398,43 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
         <v>2</v>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
       <c r="E78" t="n">
-        <v>0.99999950000025</v>
+        <v>0.199999960000008</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01092896168891278</v>
+        <v>0.04761904716553288</v>
       </c>
       <c r="G78" t="n">
-        <v>39</v>
+        <v>48.75</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4212454212454212</v>
+        <v>0.5487179487179488</v>
       </c>
       <c r="I78" t="n">
-        <v>15.76849816849817</v>
+        <v>19.71948717948718</v>
       </c>
       <c r="J78" t="n">
-        <v>39</v>
+        <v>48.75</v>
       </c>
       <c r="K78" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L78" t="n">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="M78" t="n">
-        <v>1.468864468864469</v>
+        <v>1.953846153846154</v>
       </c>
       <c r="N78" t="n">
         <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>5.556776556776557</v>
+        <v>5.692307692307693</v>
       </c>
     </row>
     <row r="79">
@@ -4452,40 +4452,40 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9999998571428775</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03111111097283951</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4576802507836991</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>12.94307210031348</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1.570532915360502</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>5.526645768025078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4500,43 +4500,43 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6666665555555741</v>
+        <v>-0.6666666296296316</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02255639089264515</v>
+        <v>0.1065088751094149</v>
       </c>
       <c r="G80" t="n">
-        <v>27.4</v>
+        <v>29</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3892944038929441</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="I80" t="n">
-        <v>11.11571776155718</v>
+        <v>11.79655172413793</v>
       </c>
       <c r="J80" t="n">
-        <v>27.4</v>
+        <v>29</v>
       </c>
       <c r="K80" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="L80" t="n">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="M80" t="n">
-        <v>1.357664233576642</v>
+        <v>1.761494252873563</v>
       </c>
       <c r="N80" t="n">
         <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>4.905109489051095</v>
+        <v>4.870689655172414</v>
       </c>
     </row>
     <row r="81">
@@ -4551,43 +4551,43 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9999990000010001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003174603164525069</v>
+        <v>0.02816901395225815</v>
       </c>
       <c r="G81" t="n">
-        <v>57.125</v>
+        <v>57.28571428571428</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4135667396061269</v>
+        <v>0.4738154613466334</v>
       </c>
       <c r="I81" t="n">
-        <v>23.01542669584245</v>
+        <v>23.10381189882437</v>
       </c>
       <c r="J81" t="n">
-        <v>57.125</v>
+        <v>57.28571428571428</v>
       </c>
       <c r="K81" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L81" t="n">
-        <v>315</v>
+        <v>213</v>
       </c>
       <c r="M81" t="n">
-        <v>1.437636761487965</v>
+        <v>1.825436408977556</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>5.411378555798687</v>
+        <v>5.324189526184538</v>
       </c>
     </row>
     <row r="82">
@@ -4602,43 +4602,43 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
         <v>2</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
       <c r="E82" t="n">
-        <v>0.99999950000025</v>
+        <v>0.199999960000008</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01169590636435142</v>
+        <v>0.06249999921875001</v>
       </c>
       <c r="G82" t="n">
-        <v>46.2</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="I82" t="n">
-        <v>18.65142857142857</v>
+        <v>20.88602150537634</v>
       </c>
       <c r="J82" t="n">
-        <v>46.2</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="K82" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L82" t="n">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="M82" t="n">
-        <v>1.536796536796537</v>
+        <v>2.012903225806451</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>5.541125541125541</v>
+        <v>5.819354838709677</v>
       </c>
     </row>
     <row r="83">
@@ -4653,43 +4653,43 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>0.99999990000001</v>
+        <v>0.5999999600000027</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04608294909639194</v>
+        <v>0.1102941168360727</v>
       </c>
       <c r="G83" t="n">
-        <v>67.40000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3916913946587537</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="I83" t="n">
-        <v>27.1166765578635</v>
+        <v>27.68909090909091</v>
       </c>
       <c r="J83" t="n">
-        <v>67.40000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="K83" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L83" t="n">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="M83" t="n">
-        <v>1.468842729970326</v>
+        <v>1.861818181818182</v>
       </c>
       <c r="N83" t="n">
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>5.379821958456973</v>
+        <v>5.410909090909091</v>
       </c>
     </row>
     <row r="84">
@@ -4704,43 +4704,43 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07692307100591762</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.04377104362366652</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>23.57894736842105</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3861607142857143</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>9.586043233082707</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>23.57894736842105</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1.377232142857143</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>5.198660714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4755,43 +4755,43 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4117646816609011</v>
+        <v>0.399999980000001</v>
       </c>
       <c r="F85" t="n">
-        <v>0.05044510370787803</v>
+        <v>0.09389671317419383</v>
       </c>
       <c r="G85" t="n">
-        <v>31.6</v>
+        <v>28.28571428571428</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4029535864978903</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="I85" t="n">
-        <v>12.80118143459916</v>
+        <v>11.51630591630592</v>
       </c>
       <c r="J85" t="n">
-        <v>31.6</v>
+        <v>28.28571428571428</v>
       </c>
       <c r="K85" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L85" t="n">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="M85" t="n">
-        <v>1.333333333333333</v>
+        <v>1.813131313131313</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>5.145569620253164</v>
+        <v>5.093434343434343</v>
       </c>
     </row>
     <row r="86">
@@ -4806,43 +4806,43 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9999990000010001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.003999999984</v>
+        <v>0.03614457809551459</v>
       </c>
       <c r="G86" t="n">
-        <v>35.9</v>
+        <v>38.75</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4094707520891365</v>
+        <v>0.5290322580645161</v>
       </c>
       <c r="I86" t="n">
-        <v>14.52378830083565</v>
+        <v>15.71161290322581</v>
       </c>
       <c r="J86" t="n">
-        <v>35.9</v>
+        <v>38.75</v>
       </c>
       <c r="K86" t="n">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="L86" t="n">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="M86" t="n">
-        <v>1.389972144846797</v>
+        <v>1.919354838709677</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>5.367688022284122</v>
+        <v>5.374193548387097</v>
       </c>
     </row>
     <row r="87">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
         <v>2</v>
       </c>
-      <c r="D87" t="n">
-        <v>1</v>
-      </c>
       <c r="E87" t="n">
-        <v>0.3333332222222593</v>
+        <v>0.333333277777787</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01935483858480749</v>
+        <v>0.06249999934895834</v>
       </c>
       <c r="G87" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4127659574468085</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I87" t="n">
-        <v>18.96510638297872</v>
+        <v>34.21176470588235</v>
       </c>
       <c r="J87" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K87" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L87" t="n">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="M87" t="n">
-        <v>1.54468085106383</v>
+        <v>1.9</v>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>5.089361702127659</v>
+        <v>5.382352941176471</v>
       </c>
     </row>
     <row r="88">
@@ -4908,43 +4908,43 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>-0.1111110987654335</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02654867244889968</v>
+        <v>0.06293706249694361</v>
       </c>
       <c r="G88" t="n">
-        <v>25.78571428571428</v>
+        <v>28.7</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3407202216066482</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="I88" t="n">
-        <v>10.45057380292837</v>
+        <v>11.67512195121951</v>
       </c>
       <c r="J88" t="n">
-        <v>25.78571428571428</v>
+        <v>28.7</v>
       </c>
       <c r="K88" t="n">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L88" t="n">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="M88" t="n">
-        <v>1.301939058171745</v>
+        <v>1.909407665505227</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>5.243767313019391</v>
+        <v>5.32404181184669</v>
       </c>
     </row>
     <row r="89">
@@ -4959,43 +4959,43 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.333333277777787</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02189781013905909</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>26.5625</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3741176470588236</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>10.77464705882353</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>26.5625</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>1.376470588235294</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>5.381176470588235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5010,43 +5010,43 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.3333332222222593</v>
+        <v>-0.1428571224489825</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01276595739248529</v>
+        <v>0.04761904729510853</v>
       </c>
       <c r="G90" t="n">
-        <v>25.64285714285714</v>
+        <v>25.27272727272727</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4011142061281337</v>
+        <v>0.5179856115107914</v>
       </c>
       <c r="I90" t="n">
-        <v>10.41758853959411</v>
+        <v>10.31628515369523</v>
       </c>
       <c r="J90" t="n">
-        <v>25.64285714285714</v>
+        <v>25.27272727272727</v>
       </c>
       <c r="K90" t="n">
         <v>144</v>
       </c>
       <c r="L90" t="n">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="M90" t="n">
-        <v>1.423398328690808</v>
+        <v>1.841726618705036</v>
       </c>
       <c r="N90" t="n">
         <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>5.147632311977716</v>
+        <v>5.338129496402877</v>
       </c>
     </row>
     <row r="91">
@@ -5061,43 +5061,43 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5555554938271674</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.044999999775</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>59.4</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4410774410774411</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>23.93643097643098</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>59.4</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1.488215488215488</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>5.084175084175084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5112,43 +5112,43 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.4999999583333368</v>
+        <v>-0.6923076390532585</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0495867766546001</v>
+        <v>0.08441558386743127</v>
       </c>
       <c r="G92" t="n">
-        <v>74</v>
+        <v>98.66666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3675675675675676</v>
+        <v>0.4391891891891892</v>
       </c>
       <c r="I92" t="n">
-        <v>29.74702702702703</v>
+        <v>39.64234234234235</v>
       </c>
       <c r="J92" t="n">
-        <v>74</v>
+        <v>98.66666666666667</v>
       </c>
       <c r="K92" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L92" t="n">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="M92" t="n">
-        <v>1.418918918918919</v>
+        <v>1.743243243243243</v>
       </c>
       <c r="N92" t="n">
         <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>5.154054054054054</v>
+        <v>5.260135135135135</v>
       </c>
     </row>
     <row r="93">
@@ -5163,43 +5163,43 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7241379060642101</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04957264948791</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3702989392478303</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>12.34811957569913</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1.407907425265188</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>4.789778206364513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5217,40 +5217,40 @@
         <v>23</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9166666284722238</v>
+        <v>0.7692307396449716</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04033613438598969</v>
+        <v>0.0582959639948521</v>
       </c>
       <c r="G94" t="n">
-        <v>32</v>
+        <v>30.18181818181818</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3702651515151515</v>
+        <v>0.4246987951807229</v>
       </c>
       <c r="I94" t="n">
-        <v>12.94810606060606</v>
+        <v>12.24260679079956</v>
       </c>
       <c r="J94" t="n">
-        <v>32</v>
+        <v>30.18181818181818</v>
       </c>
       <c r="K94" t="n">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="L94" t="n">
-        <v>595</v>
+        <v>446</v>
       </c>
       <c r="M94" t="n">
-        <v>1.411931818181818</v>
+        <v>1.725903614457831</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>4.870265151515151</v>
+        <v>4.845381526104418</v>
       </c>
     </row>
     <row r="95">
@@ -5265,43 +5265,43 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9999990000010001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.006097560938429507</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>73.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>29.51515151515152</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>73.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1.536363636363636</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>5.490909090909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5316,43 +5316,43 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4545454132231443</v>
+        <v>0.1999999866666676</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04214559370825443</v>
+        <v>0.08771929773263569</v>
       </c>
       <c r="G96" t="n">
-        <v>30.13333333333333</v>
+        <v>25.8</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3694690265486726</v>
+        <v>0.4392764857881137</v>
       </c>
       <c r="I96" t="n">
-        <v>12.2011209439528</v>
+        <v>10.49571059431525</v>
       </c>
       <c r="J96" t="n">
-        <v>30.13333333333333</v>
+        <v>25.8</v>
       </c>
       <c r="K96" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L96" t="n">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="M96" t="n">
-        <v>1.398230088495575</v>
+        <v>1.733850129198966</v>
       </c>
       <c r="N96" t="n">
         <v>3</v>
       </c>
       <c r="O96" t="n">
-        <v>4.865044247787611</v>
+        <v>4.829457364341085</v>
       </c>
     </row>
     <row r="97">
@@ -5370,40 +5370,40 @@
         <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>0.399999960000004</v>
+        <v>0.166666652777779</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05291005263010554</v>
+        <v>0.09374999926757813</v>
       </c>
       <c r="G97" t="n">
-        <v>31.4</v>
+        <v>30.875</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3949044585987261</v>
+        <v>0.5060728744939271</v>
       </c>
       <c r="I97" t="n">
-        <v>12.71796178343949</v>
+        <v>12.55242914979757</v>
       </c>
       <c r="J97" t="n">
-        <v>31.4</v>
+        <v>30.875</v>
       </c>
       <c r="K97" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L97" t="n">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="M97" t="n">
-        <v>1.43312101910828</v>
+        <v>1.817813765182186</v>
       </c>
       <c r="N97" t="n">
         <v>2</v>
       </c>
       <c r="O97" t="n">
-        <v>5.187898089171974</v>
+        <v>5.360323886639677</v>
       </c>
     </row>
     <row r="98">
@@ -5418,43 +5418,43 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.1111110987654335</v>
+        <v>-0.2307692130177529</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03272727260826446</v>
+        <v>0.07065217352906428</v>
       </c>
       <c r="G98" t="n">
-        <v>32.85714285714285</v>
+        <v>32.41666666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>0.358695652173913</v>
+        <v>0.4447300771208226</v>
       </c>
       <c r="I98" t="n">
-        <v>13.28633540372671</v>
+        <v>13.144558697515</v>
       </c>
       <c r="J98" t="n">
-        <v>32.85714285714285</v>
+        <v>32.41666666666666</v>
       </c>
       <c r="K98" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L98" t="n">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="M98" t="n">
-        <v>1.356521739130435</v>
+        <v>1.688946015424164</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>4.921739130434783</v>
+        <v>4.902313624678663</v>
       </c>
     </row>
     <row r="99">
@@ -5472,40 +5472,40 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>0.599999880000024</v>
+        <v>0.1428571224489825</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02369668235214843</v>
+        <v>0.04964538971882702</v>
       </c>
       <c r="G99" t="n">
-        <v>33.5</v>
+        <v>32</v>
       </c>
       <c r="H99" t="n">
-        <v>0.417910447761194</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="I99" t="n">
-        <v>13.56716417910448</v>
+        <v>12.99722222222222</v>
       </c>
       <c r="J99" t="n">
-        <v>33.5</v>
+        <v>32</v>
       </c>
       <c r="K99" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L99" t="n">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="M99" t="n">
-        <v>1.528358208955224</v>
+        <v>1.822916666666667</v>
       </c>
       <c r="N99" t="n">
         <v>3</v>
       </c>
       <c r="O99" t="n">
-        <v>5.265671641791045</v>
+        <v>5.225694444444445</v>
       </c>
     </row>
     <row r="100">
@@ -5520,43 +5520,43 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>8</v>
+      </c>
+      <c r="D100" t="n">
         <v>5</v>
       </c>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
       <c r="E100" t="n">
-        <v>0.6666665555555741</v>
+        <v>0.2307692130177529</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01754385959782497</v>
+        <v>0.05963302724938978</v>
       </c>
       <c r="G100" t="n">
-        <v>33.75</v>
+        <v>33.5</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="I100" t="n">
-        <v>13.67037037037037</v>
+        <v>13.58507462686567</v>
       </c>
       <c r="J100" t="n">
-        <v>33.75</v>
+        <v>33.5</v>
       </c>
       <c r="K100" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="L100" t="n">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="M100" t="n">
-        <v>1.568518518518518</v>
+        <v>1.831556503198294</v>
       </c>
       <c r="N100" t="n">
         <v>4</v>
       </c>
       <c r="O100" t="n">
-        <v>5.175925925925926</v>
+        <v>5.138592750533049</v>
       </c>
     </row>
     <row r="101">
@@ -5571,43 +5571,43 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>0.99999980000004</v>
+        <v>0.4999999375000079</v>
       </c>
       <c r="F101" t="n">
-        <v>0.02127659565414215</v>
+        <v>0.05194805161072694</v>
       </c>
       <c r="G101" t="n">
-        <v>21.11764705882353</v>
+        <v>19.6</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3927576601671309</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="I101" t="n">
-        <v>8.604161887596264</v>
+        <v>8.035918367346939</v>
       </c>
       <c r="J101" t="n">
-        <v>21.11764705882353</v>
+        <v>19.6</v>
       </c>
       <c r="K101" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L101" t="n">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="M101" t="n">
-        <v>1.442896935933148</v>
+        <v>1.884353741496599</v>
       </c>
       <c r="N101" t="n">
         <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>5.119777158774373</v>
+        <v>5.227891156462585</v>
       </c>
     </row>
     <row r="102">
@@ -5622,43 +5622,43 @@
         </is>
       </c>
       <c r="C102" t="n">
+        <v>7</v>
+      </c>
+      <c r="D102" t="n">
         <v>5</v>
       </c>
-      <c r="D102" t="n">
-        <v>3</v>
-      </c>
       <c r="E102" t="n">
-        <v>0.2499999687500039</v>
+        <v>0.166666652777779</v>
       </c>
       <c r="F102" t="n">
-        <v>0.02721088426118747</v>
+        <v>0.06417112265149133</v>
       </c>
       <c r="G102" t="n">
-        <v>29.375</v>
+        <v>25</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3787234042553191</v>
+        <v>0.4275</v>
       </c>
       <c r="I102" t="n">
-        <v>11.90148936170213</v>
+        <v>10.171</v>
       </c>
       <c r="J102" t="n">
-        <v>29.375</v>
+        <v>25</v>
       </c>
       <c r="K102" t="n">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L102" t="n">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="M102" t="n">
-        <v>1.408510638297872</v>
+        <v>1.685</v>
       </c>
       <c r="N102" t="n">
         <v>8</v>
       </c>
       <c r="O102" t="n">
-        <v>4.882978723404255</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="103">
@@ -5673,43 +5673,43 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>-0.333333277777787</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01169590636435142</v>
+        <v>0.05882352883506344</v>
       </c>
       <c r="G103" t="n">
-        <v>36.71428571428572</v>
+        <v>38.8</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4319066147859922</v>
+        <v>0.5412371134020618</v>
       </c>
       <c r="I103" t="n">
-        <v>14.85847693162868</v>
+        <v>15.73649484536082</v>
       </c>
       <c r="J103" t="n">
-        <v>36.71428571428572</v>
+        <v>38.8</v>
       </c>
       <c r="K103" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L103" t="n">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="M103" t="n">
-        <v>1.474708171206226</v>
+        <v>1.912371134020619</v>
       </c>
       <c r="N103" t="n">
         <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>5.342412451361867</v>
+        <v>5.479381443298969</v>
       </c>
     </row>
     <row r="104">
@@ -5724,43 +5724,43 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>0.99999950000025</v>
+        <v>0.1111110987654335</v>
       </c>
       <c r="F104" t="n">
-        <v>0.006756756733929876</v>
+        <v>0.04891304321242911</v>
       </c>
       <c r="G104" t="n">
-        <v>34</v>
+        <v>30.08333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3868778280542987</v>
+        <v>0.4681440443213297</v>
       </c>
       <c r="I104" t="n">
-        <v>13.75475113122172</v>
+        <v>12.22059095106187</v>
       </c>
       <c r="J104" t="n">
-        <v>34</v>
+        <v>30.08333333333333</v>
       </c>
       <c r="K104" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L104" t="n">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="M104" t="n">
-        <v>1.457013574660633</v>
+        <v>1.822714681440443</v>
       </c>
       <c r="N104" t="n">
         <v>7</v>
       </c>
       <c r="O104" t="n">
-        <v>5.110859728506787</v>
+        <v>5.085872576177286</v>
       </c>
     </row>
     <row r="105">
@@ -5775,43 +5775,43 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9999990000010001</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.008928571348852042</v>
+        <v>0.06779660902039646</v>
       </c>
       <c r="G105" t="n">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5422535211267606</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="I105" t="n">
-        <v>57.01690140845071</v>
+        <v>36.27111111111111</v>
       </c>
       <c r="J105" t="n">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="K105" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L105" t="n">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="M105" t="n">
-        <v>1.73943661971831</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>6.204225352112676</v>
+        <v>6.411111111111111</v>
       </c>
     </row>
     <row r="106">
@@ -5826,43 +5826,43 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9090908677685968</v>
+        <v>0.6129032060353804</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04651162780864349</v>
+        <v>0.09253731315660503</v>
       </c>
       <c r="G106" t="n">
-        <v>25.48387096774194</v>
+        <v>24.03333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0.350632911392405</v>
+        <v>0.4133148404993065</v>
       </c>
       <c r="I106" t="n">
-        <v>10.33380155165374</v>
+        <v>9.778659269533058</v>
       </c>
       <c r="J106" t="n">
-        <v>25.48387096774194</v>
+        <v>24.03333333333333</v>
       </c>
       <c r="K106" t="n">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="L106" t="n">
-        <v>473</v>
+        <v>335</v>
       </c>
       <c r="M106" t="n">
-        <v>1.364556962025316</v>
+        <v>1.707350901525659</v>
       </c>
       <c r="N106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O106" t="n">
-        <v>4.863291139240506</v>
+        <v>4.875173370319001</v>
       </c>
     </row>
     <row r="107">
@@ -5877,43 +5877,43 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9999999230769291</v>
+        <v>0.6470587854671302</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04113924037614165</v>
+        <v>0.08333333292483661</v>
       </c>
       <c r="G107" t="n">
-        <v>29.58823529411765</v>
+        <v>28.2</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3339960238568588</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="I107" t="n">
-        <v>11.9688925271898</v>
+        <v>11.43035460992908</v>
       </c>
       <c r="J107" t="n">
-        <v>29.58823529411765</v>
+        <v>28.2</v>
       </c>
       <c r="K107" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L107" t="n">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="M107" t="n">
-        <v>1.276341948310139</v>
+        <v>1.609929078014184</v>
       </c>
       <c r="N107" t="n">
         <v>5</v>
       </c>
       <c r="O107" t="n">
-        <v>4.640159045725646</v>
+        <v>4.505910165484633</v>
       </c>
     </row>
     <row r="108">
@@ -5928,43 +5928,43 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>-0.2499999687500039</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01282051277942143</v>
+        <v>0.03846153827662722</v>
       </c>
       <c r="G108" t="n">
-        <v>26.61111111111111</v>
+        <v>24.5625</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3235908141962422</v>
+        <v>0.4300254452926209</v>
       </c>
       <c r="I108" t="n">
-        <v>10.77388077012294</v>
+        <v>9.99701017811705</v>
       </c>
       <c r="J108" t="n">
-        <v>26.61111111111111</v>
+        <v>24.5625</v>
       </c>
       <c r="K108" t="n">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L108" t="n">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="M108" t="n">
-        <v>1.208768267223382</v>
+        <v>1.778625954198473</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>4.889352818371608</v>
+        <v>4.824427480916031</v>
       </c>
     </row>
     <row r="109">
@@ -5979,43 +5979,43 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7142856122449125</v>
+        <v>0.399999960000004</v>
       </c>
       <c r="F109" t="n">
-        <v>0.03645833314344618</v>
+        <v>0.0833333326388889</v>
       </c>
       <c r="G109" t="n">
-        <v>38.85714285714285</v>
+        <v>34.83333333333334</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4889705882352941</v>
+        <v>0.6124401913875598</v>
       </c>
       <c r="I109" t="n">
-        <v>15.73844537815126</v>
+        <v>14.17830940988836</v>
       </c>
       <c r="J109" t="n">
-        <v>38.85714285714285</v>
+        <v>34.83333333333334</v>
       </c>
       <c r="K109" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L109" t="n">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="M109" t="n">
-        <v>1.595588235294118</v>
+        <v>1.942583732057416</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>5.430147058823529</v>
+        <v>5.54066985645933</v>
       </c>
     </row>
     <row r="110">
@@ -6030,43 +6030,43 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5789473379501401</v>
+        <v>0.399999980000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.06934306544035378</v>
+        <v>0.1092896168891278</v>
       </c>
       <c r="G110" t="n">
-        <v>19.04166666666667</v>
+        <v>19.95</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3676148796498906</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="I110" t="n">
-        <v>7.763712618526625</v>
+        <v>8.162456140350876</v>
       </c>
       <c r="J110" t="n">
-        <v>19.04166666666667</v>
+        <v>19.95</v>
       </c>
       <c r="K110" t="n">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L110" t="n">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="M110" t="n">
-        <v>1.326039387308534</v>
+        <v>1.726817042606516</v>
       </c>
       <c r="N110" t="n">
         <v>8</v>
       </c>
       <c r="O110" t="n">
-        <v>4.855579868708972</v>
+        <v>4.786967418546366</v>
       </c>
     </row>
     <row r="111">
@@ -6084,40 +6084,40 @@
         <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4285713979591859</v>
+        <v>0.3333333111111126</v>
       </c>
       <c r="F111" t="n">
-        <v>0.04713804697933317</v>
+        <v>0.07978723361815301</v>
       </c>
       <c r="G111" t="n">
-        <v>32.8</v>
+        <v>32.07692307692308</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3434959349593496</v>
+        <v>0.3836930455635492</v>
       </c>
       <c r="I111" t="n">
-        <v>13.25739837398374</v>
+        <v>12.98424644899465</v>
       </c>
       <c r="J111" t="n">
-        <v>32.8</v>
+        <v>32.07692307692308</v>
       </c>
       <c r="K111" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L111" t="n">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="M111" t="n">
-        <v>1.430894308943089</v>
+        <v>1.6810551558753</v>
       </c>
       <c r="N111" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O111" t="n">
-        <v>4.904471544715447</v>
+        <v>4.824940047961631</v>
       </c>
     </row>
     <row r="112">
@@ -6132,43 +6132,43 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8461537810650938</v>
+        <v>0.4736841855955691</v>
       </c>
       <c r="F112" t="n">
-        <v>0.03249999991875</v>
+        <v>0.06690140821513589</v>
       </c>
       <c r="G112" t="n">
-        <v>33.55</v>
+        <v>35.41176470588236</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3070044709388972</v>
+        <v>0.4019933554817276</v>
       </c>
       <c r="I112" t="n">
-        <v>13.54280178837556</v>
+        <v>14.32550322454563</v>
       </c>
       <c r="J112" t="n">
-        <v>33.55</v>
+        <v>35.41176470588236</v>
       </c>
       <c r="K112" t="n">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="L112" t="n">
-        <v>400</v>
+        <v>284</v>
       </c>
       <c r="M112" t="n">
-        <v>1.251862891207153</v>
+        <v>1.699335548172757</v>
       </c>
       <c r="N112" t="n">
         <v>8</v>
       </c>
       <c r="O112" t="n">
-        <v>4.882265275707899</v>
+        <v>4.915282392026578</v>
       </c>
     </row>
     <row r="113">
@@ -6183,43 +6183,43 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5555554938271674</v>
+        <v>0.3333333111111126</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03260869553402647</v>
+        <v>0.09036144523878648</v>
       </c>
       <c r="G113" t="n">
-        <v>30.6</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3464052287581699</v>
+        <v>0.4319371727748691</v>
       </c>
       <c r="I113" t="n">
-        <v>12.37856209150327</v>
+        <v>12.90610820244328</v>
       </c>
       <c r="J113" t="n">
-        <v>30.6</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="K113" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L113" t="n">
-        <v>276</v>
+        <v>166</v>
       </c>
       <c r="M113" t="n">
-        <v>1.328976034858388</v>
+        <v>1.714659685863874</v>
       </c>
       <c r="N113" t="n">
         <v>8</v>
       </c>
       <c r="O113" t="n">
-        <v>4.74074074074074</v>
+        <v>4.782722513089006</v>
       </c>
     </row>
     <row r="114">
@@ -6234,43 +6234,43 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8888888395061756</v>
+        <v>0.7499999687500013</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05825242699594684</v>
+        <v>0.122448978967097</v>
       </c>
       <c r="G114" t="n">
-        <v>61.25</v>
+        <v>53.125</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3979591836734694</v>
+        <v>0.4729411764705883</v>
       </c>
       <c r="I114" t="n">
-        <v>24.65918367346939</v>
+        <v>21.43917647058824</v>
       </c>
       <c r="J114" t="n">
-        <v>61.25</v>
+        <v>53.125</v>
       </c>
       <c r="K114" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L114" t="n">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="M114" t="n">
-        <v>1.457142857142857</v>
+        <v>1.767058823529412</v>
       </c>
       <c r="N114" t="n">
         <v>3</v>
       </c>
       <c r="O114" t="n">
-        <v>5.104081632653061</v>
+        <v>5.049411764705883</v>
       </c>
     </row>
     <row r="115">
@@ -6285,43 +6285,43 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.3333332222222593</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01829268281528852</v>
+        <v>0.04878048720999406</v>
       </c>
       <c r="G115" t="n">
-        <v>45.8</v>
+        <v>38.25</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4585152838427948</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I115" t="n">
-        <v>18.50340611353712</v>
+        <v>15.52222222222222</v>
       </c>
       <c r="J115" t="n">
-        <v>45.8</v>
+        <v>38.25</v>
       </c>
       <c r="K115" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L115" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="M115" t="n">
-        <v>1.532751091703057</v>
+        <v>1.973856209150327</v>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>5.497816593886463</v>
+        <v>5.647058823529412</v>
       </c>
     </row>
     <row r="116">
@@ -6336,43 +6336,43 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E116" t="n">
-        <v>0.599999880000024</v>
+        <v>0.166666652777779</v>
       </c>
       <c r="F116" t="n">
-        <v>0.02262443428676727</v>
+        <v>0.09022556323138674</v>
       </c>
       <c r="G116" t="n">
-        <v>25.23076923076923</v>
+        <v>22.81818181818182</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4298780487804878</v>
+        <v>0.5338645418326693</v>
       </c>
       <c r="I116" t="n">
-        <v>10.26425891181989</v>
+        <v>9.340818544005796</v>
       </c>
       <c r="J116" t="n">
-        <v>25.23076923076923</v>
+        <v>22.81818181818182</v>
       </c>
       <c r="K116" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L116" t="n">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="M116" t="n">
-        <v>1.545731707317073</v>
+        <v>2.095617529880478</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>5.692073170731708</v>
+        <v>5.860557768924303</v>
       </c>
     </row>
     <row r="117">
@@ -6387,43 +6387,43 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9999990000010001</v>
+        <v>-0.4285713673469475</v>
       </c>
       <c r="F117" t="n">
-        <v>0.004878048756692445</v>
+        <v>0.06194690210666459</v>
       </c>
       <c r="G117" t="n">
-        <v>47.83333333333334</v>
+        <v>52.75</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4181184668989547</v>
+        <v>0.5165876777251185</v>
       </c>
       <c r="I117" t="n">
-        <v>19.30058072009292</v>
+        <v>21.30663507109005</v>
       </c>
       <c r="J117" t="n">
-        <v>47.83333333333334</v>
+        <v>52.75</v>
       </c>
       <c r="K117" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L117" t="n">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="M117" t="n">
-        <v>1.418118466898955</v>
+        <v>1.872037914691943</v>
       </c>
       <c r="N117" t="n">
         <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>5.247386759581881</v>
+        <v>5.279620853080568</v>
       </c>
     </row>
     <row r="118">
@@ -6438,43 +6438,43 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.6666666111111158</v>
       </c>
       <c r="F118" t="n">
-        <v>0.02180685351462039</v>
+        <v>0.05741626766786475</v>
       </c>
       <c r="G118" t="n">
-        <v>35.5</v>
+        <v>35.58333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3903420523138833</v>
+        <v>0.5011709601873536</v>
       </c>
       <c r="I118" t="n">
-        <v>14.35613682092555</v>
+        <v>14.43380171740828</v>
       </c>
       <c r="J118" t="n">
-        <v>35.5</v>
+        <v>35.58333333333334</v>
       </c>
       <c r="K118" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L118" t="n">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="M118" t="n">
-        <v>1.354124748490946</v>
+        <v>1.911007025761124</v>
       </c>
       <c r="N118" t="n">
         <v>2</v>
       </c>
       <c r="O118" t="n">
-        <v>5.223340040241449</v>
+        <v>5.243559718969555</v>
       </c>
     </row>
     <row r="119">
@@ -6492,40 +6492,40 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.4999999375000079</v>
       </c>
       <c r="F119" t="n">
-        <v>0.02264150934852261</v>
+        <v>0.04545454519628099</v>
       </c>
       <c r="G119" t="n">
-        <v>28.06666666666667</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4251781472684085</v>
+        <v>0.5013698630136987</v>
       </c>
       <c r="I119" t="n">
-        <v>11.39673792557403</v>
+        <v>9.933881278538813</v>
       </c>
       <c r="J119" t="n">
-        <v>28.06666666666667</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="K119" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L119" t="n">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="M119" t="n">
-        <v>1.470308788598575</v>
+        <v>1.824657534246575</v>
       </c>
       <c r="N119" t="n">
         <v>3</v>
       </c>
       <c r="O119" t="n">
-        <v>5.280285035629453</v>
+        <v>5.175342465753425</v>
       </c>
     </row>
     <row r="120">
@@ -6540,43 +6540,43 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9999990000010001</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.008547008473957193</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.282051282051282</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>31.31282051282052</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1.051282051282051</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>7.474358974358974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -6591,43 +6591,43 @@
         </is>
       </c>
       <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
         <v>2</v>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
       <c r="E121" t="n">
-        <v>0.99999950000025</v>
+        <v>0.333333277777787</v>
       </c>
       <c r="F121" t="n">
-        <v>0.012499999921875</v>
+        <v>0.06666666592592593</v>
       </c>
       <c r="G121" t="n">
-        <v>31</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>0.391705069124424</v>
+        <v>0.6083916083916084</v>
       </c>
       <c r="I121" t="n">
-        <v>12.55668202764977</v>
+        <v>9.776689976689978</v>
       </c>
       <c r="J121" t="n">
-        <v>31</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="K121" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L121" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="M121" t="n">
-        <v>1.405529953917051</v>
+        <v>2.111888111888112</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>5.502304147465438</v>
+        <v>5.874125874125874</v>
       </c>
     </row>
     <row r="122">
@@ -6642,43 +6642,43 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9999998571428775</v>
+        <v>0.636363578512402</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04166666641865079</v>
+        <v>0.114583332139757</v>
       </c>
       <c r="G122" t="n">
-        <v>30</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="I122" t="n">
-        <v>12.16666666666667</v>
+        <v>12.07565543071161</v>
       </c>
       <c r="J122" t="n">
-        <v>30</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="K122" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L122" t="n">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="M122" t="n">
-        <v>1.5125</v>
+        <v>1.932584269662921</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>5.420833333333333</v>
+        <v>5.51685393258427</v>
       </c>
     </row>
     <row r="123">
@@ -6693,43 +6693,43 @@
         </is>
       </c>
       <c r="C123" t="n">
+        <v>5</v>
+      </c>
+      <c r="D123" t="n">
         <v>4</v>
       </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
       <c r="E123" t="n">
-        <v>0.333333277777787</v>
+        <v>0.1111110987654335</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0379746833039577</v>
+        <v>0.1267605615949217</v>
       </c>
       <c r="G123" t="n">
-        <v>70</v>
+        <v>66.5</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3904761904761905</v>
+        <v>0.556390977443609</v>
       </c>
       <c r="I123" t="n">
-        <v>28.15619047619048</v>
+        <v>26.82255639097745</v>
       </c>
       <c r="J123" t="n">
-        <v>70</v>
+        <v>66.5</v>
       </c>
       <c r="K123" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L123" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="M123" t="n">
-        <v>1.328571428571429</v>
+        <v>2.022556390977444</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>5.252380952380952</v>
+        <v>5.646616541353383</v>
       </c>
     </row>
     <row r="124">
@@ -6744,43 +6744,43 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.03973509907460199</v>
+        <v>0.1204819262592539</v>
       </c>
       <c r="G124" t="n">
-        <v>27</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4656084656084656</v>
+        <v>0.609375</v>
       </c>
       <c r="I124" t="n">
-        <v>10.98624338624339</v>
+        <v>7.558035714285714</v>
       </c>
       <c r="J124" t="n">
-        <v>27</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="K124" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L124" t="n">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="M124" t="n">
-        <v>1.529100529100529</v>
+        <v>2.09375</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>5.74074074074074</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="125">
@@ -6795,43 +6795,43 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E125" t="n">
-        <v>0.99999950000025</v>
+        <v>0.1428571224489825</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01351351342220599</v>
+        <v>0.08860759381509375</v>
       </c>
       <c r="G125" t="n">
-        <v>28</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="I125" t="n">
-        <v>11.37142857142857</v>
+        <v>8.505376344086022</v>
       </c>
       <c r="J125" t="n">
-        <v>28</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="K125" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L125" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="M125" t="n">
-        <v>1.423469387755102</v>
+        <v>2.016129032258065</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>5.596938775510204</v>
+        <v>5.935483870967742</v>
       </c>
     </row>
     <row r="126">
@@ -6846,43 +6846,43 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7999999200000081</v>
+        <v>0.6923076390532585</v>
       </c>
       <c r="F126" t="n">
-        <v>0.03731343269659167</v>
+        <v>0.07344632726866482</v>
       </c>
       <c r="G126" t="n">
-        <v>28.5625</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4201312910284464</v>
+        <v>0.4564102564102564</v>
       </c>
       <c r="I126" t="n">
-        <v>11.59305251641138</v>
+        <v>11.32542124542125</v>
       </c>
       <c r="J126" t="n">
-        <v>28.5625</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="K126" t="n">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L126" t="n">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="M126" t="n">
-        <v>1.507658643326039</v>
+        <v>1.746153846153846</v>
       </c>
       <c r="N126" t="n">
         <v>6</v>
       </c>
       <c r="O126" t="n">
-        <v>5.039387308533917</v>
+        <v>4.987179487179487</v>
       </c>
     </row>
     <row r="127">
@@ -6900,40 +6900,40 @@
         <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3333332222222593</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01485148507499265</v>
+        <v>0.03603603571138707</v>
       </c>
       <c r="G127" t="n">
-        <v>29.7</v>
+        <v>31.57142857142857</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3872053872053872</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I127" t="n">
-        <v>12.03488215488215</v>
+        <v>12.84033613445378</v>
       </c>
       <c r="J127" t="n">
-        <v>29.7</v>
+        <v>31.57142857142857</v>
       </c>
       <c r="K127" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L127" t="n">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="M127" t="n">
-        <v>1.417508417508418</v>
+        <v>2.049773755656108</v>
       </c>
       <c r="N127" t="n">
         <v>4</v>
       </c>
       <c r="O127" t="n">
-        <v>5.767676767676767</v>
+        <v>5.932126696832579</v>
       </c>
     </row>
     <row r="128">
@@ -6948,43 +6948,43 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.599999940000006</v>
+        <v>-0.4285713979591859</v>
       </c>
       <c r="F128" t="n">
-        <v>0.02762430931595495</v>
+        <v>0.05737704894517603</v>
       </c>
       <c r="G128" t="n">
-        <v>36.6875</v>
+        <v>33.26666666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4071550255536627</v>
+        <v>0.4789579158316633</v>
       </c>
       <c r="I128" t="n">
-        <v>14.83786201022147</v>
+        <v>13.49824983299933</v>
       </c>
       <c r="J128" t="n">
-        <v>36.6875</v>
+        <v>33.26666666666667</v>
       </c>
       <c r="K128" t="n">
         <v>239</v>
       </c>
       <c r="L128" t="n">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="M128" t="n">
-        <v>1.504258943781942</v>
+        <v>1.793587174348697</v>
       </c>
       <c r="N128" t="n">
         <v>3</v>
       </c>
       <c r="O128" t="n">
-        <v>4.955706984667803</v>
+        <v>4.949899799599199</v>
       </c>
     </row>
     <row r="129">
@@ -6999,43 +6999,43 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>0.599999940000006</v>
+        <v>0.3749999765625014</v>
       </c>
       <c r="F129" t="n">
-        <v>0.04608294909639194</v>
+        <v>0.1185185176406036</v>
       </c>
       <c r="G129" t="n">
-        <v>36.77777777777778</v>
+        <v>30</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3897280966767371</v>
+        <v>0.4740740740740741</v>
       </c>
       <c r="I129" t="n">
-        <v>14.86700234978181</v>
+        <v>12.18962962962963</v>
       </c>
       <c r="J129" t="n">
-        <v>36.77777777777778</v>
+        <v>30</v>
       </c>
       <c r="K129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L129" t="n">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="M129" t="n">
-        <v>1.450151057401813</v>
+        <v>1.822222222222222</v>
       </c>
       <c r="N129" t="n">
         <v>1</v>
       </c>
       <c r="O129" t="n">
-        <v>5.211480362537764</v>
+        <v>5.214814814814815</v>
       </c>
     </row>
     <row r="130">
@@ -7050,43 +7050,43 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6249999609375024</v>
+        <v>0.5555555246913597</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05194805177938944</v>
+        <v>0.08219178044661288</v>
       </c>
       <c r="G130" t="n">
-        <v>25.04545454545455</v>
+        <v>24.1</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4174228675136116</v>
+        <v>0.466804979253112</v>
       </c>
       <c r="I130" t="n">
-        <v>10.18515096518726</v>
+        <v>9.826721991701246</v>
       </c>
       <c r="J130" t="n">
-        <v>25.04545454545455</v>
+        <v>24.1</v>
       </c>
       <c r="K130" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L130" t="n">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="M130" t="n">
-        <v>1.557168784029038</v>
+        <v>1.823651452282158</v>
       </c>
       <c r="N130" t="n">
         <v>12</v>
       </c>
       <c r="O130" t="n">
-        <v>5.054446460980036</v>
+        <v>5.039419087136929</v>
       </c>
     </row>
     <row r="131">
@@ -7101,43 +7101,43 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5555554938271674</v>
+        <v>0.249999984375001</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0351562498626709</v>
+        <v>0.08888888839506173</v>
       </c>
       <c r="G131" t="n">
-        <v>25.23529411764706</v>
+        <v>26.14285714285714</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4125874125874126</v>
+        <v>0.4890710382513661</v>
       </c>
       <c r="I131" t="n">
-        <v>10.25915261209379</v>
+        <v>10.6527712724434</v>
       </c>
       <c r="J131" t="n">
-        <v>25.23529411764706</v>
+        <v>26.14285714285714</v>
       </c>
       <c r="K131" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L131" t="n">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="M131" t="n">
-        <v>1.48018648018648</v>
+        <v>1.806010928961749</v>
       </c>
       <c r="N131" t="n">
         <v>6</v>
       </c>
       <c r="O131" t="n">
-        <v>5.06993006993007</v>
+        <v>5.084699453551913</v>
       </c>
     </row>
     <row r="132">
@@ -7152,43 +7152,43 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9999998333333611</v>
+        <v>0.5555554938271674</v>
       </c>
       <c r="F132" t="n">
-        <v>0.02150537626700582</v>
+        <v>0.05142857113469388</v>
       </c>
       <c r="G132" t="n">
-        <v>31.64285714285714</v>
+        <v>27.21428571428572</v>
       </c>
       <c r="H132" t="n">
-        <v>0.345372460496614</v>
+        <v>0.4435695538057743</v>
       </c>
       <c r="I132" t="n">
-        <v>12.7952918413415</v>
+        <v>11.0631421072366</v>
       </c>
       <c r="J132" t="n">
-        <v>31.64285714285714</v>
+        <v>27.21428571428572</v>
       </c>
       <c r="K132" t="n">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L132" t="n">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="M132" t="n">
-        <v>1.345372460496614</v>
+        <v>1.784776902887139</v>
       </c>
       <c r="N132" t="n">
         <v>1</v>
       </c>
       <c r="O132" t="n">
-        <v>5.083521444695259</v>
+        <v>5.10498687664042</v>
       </c>
     </row>
     <row r="133">
@@ -7203,43 +7203,43 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.599999880000024</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.01689189183482469</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>29.11764705882353</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3292929292929293</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>11.77877599524658</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>29.11764705882353</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>1.339393939393939</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>5.224242424242425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -7254,43 +7254,43 @@
         </is>
       </c>
       <c r="C134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" t="n">
         <v>3</v>
       </c>
-      <c r="D134" t="n">
-        <v>1</v>
-      </c>
       <c r="E134" t="n">
-        <v>0.4999998750000312</v>
+        <v>0.1428571224489825</v>
       </c>
       <c r="F134" t="n">
-        <v>0.01951219502676978</v>
+        <v>0.055999999552</v>
       </c>
       <c r="G134" t="n">
-        <v>30.77777777777778</v>
+        <v>27.25</v>
       </c>
       <c r="H134" t="n">
-        <v>0.4259927797833935</v>
+        <v>0.536697247706422</v>
       </c>
       <c r="I134" t="n">
-        <v>12.48150822302447</v>
+        <v>11.11467889908257</v>
       </c>
       <c r="J134" t="n">
-        <v>30.77777777777778</v>
+        <v>27.25</v>
       </c>
       <c r="K134" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L134" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="M134" t="n">
-        <v>1.454873646209386</v>
+        <v>1.912844036697248</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>5.339350180505416</v>
+        <v>5.431192660550459</v>
       </c>
     </row>
     <row r="135">
@@ -7308,40 +7308,40 @@
         <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4999998750000312</v>
+        <v>-0.2499999687500039</v>
       </c>
       <c r="F135" t="n">
-        <v>0.01990049741343036</v>
+        <v>0.06349206298815824</v>
       </c>
       <c r="G135" t="n">
-        <v>47</v>
+        <v>53.5</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3794326241134752</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="I135" t="n">
-        <v>18.95177304964539</v>
+        <v>21.61308411214954</v>
       </c>
       <c r="J135" t="n">
-        <v>47</v>
+        <v>53.5</v>
       </c>
       <c r="K135" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L135" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="M135" t="n">
-        <v>1.400709219858156</v>
+        <v>1.85981308411215</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>5.333333333333333</v>
+        <v>5.490654205607477</v>
       </c>
     </row>
     <row r="136">
@@ -7356,43 +7356,43 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>0.99999950000025</v>
+        <v>0.2499999687500039</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01041666661241319</v>
+        <v>0.068965516646849</v>
       </c>
       <c r="G136" t="n">
-        <v>27.6</v>
+        <v>28.42857142857143</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5829145728643216</v>
       </c>
       <c r="I136" t="n">
-        <v>11.20666666666667</v>
+        <v>11.6045944005743</v>
       </c>
       <c r="J136" t="n">
-        <v>27.6</v>
+        <v>28.42857142857143</v>
       </c>
       <c r="K136" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L136" t="n">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="M136" t="n">
-        <v>1.452898550724638</v>
+        <v>2.055276381909548</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>5.489130434782608</v>
+        <v>5.688442211055277</v>
       </c>
     </row>
     <row r="137">
@@ -7407,43 +7407,43 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.99999950000025</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.01041666661241319</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>32.625</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4521072796934866</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>13.2308429118774</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>32.625</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>1.544061302681992</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>5.75095785440613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -7458,43 +7458,43 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
-        <v>0.99999950000025</v>
+        <v>0.1428571224489825</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01025641020381328</v>
+        <v>0.06034482706599287</v>
       </c>
       <c r="G138" t="n">
-        <v>35.375</v>
+        <v>26.75</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4134275618374558</v>
+        <v>0.5373831775700935</v>
       </c>
       <c r="I138" t="n">
-        <v>14.31537102473498</v>
+        <v>10.91495327102804</v>
       </c>
       <c r="J138" t="n">
-        <v>35.375</v>
+        <v>26.75</v>
       </c>
       <c r="K138" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L138" t="n">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="M138" t="n">
-        <v>1.469964664310954</v>
+        <v>1.967289719626168</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>5.367491166077738</v>
+        <v>5.457943925233645</v>
       </c>
     </row>
     <row r="139">
@@ -7512,40 +7512,40 @@
         <v>3</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9999996666667778</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.01764705871972318</v>
+        <v>0.05607476583107696</v>
       </c>
       <c r="G139" t="n">
-        <v>41</v>
+        <v>45.25</v>
       </c>
       <c r="H139" t="n">
-        <v>0.443089430894309</v>
+        <v>0.5580110497237569</v>
       </c>
       <c r="I139" t="n">
-        <v>16.57723577235772</v>
+        <v>18.3232044198895</v>
       </c>
       <c r="J139" t="n">
-        <v>41</v>
+        <v>45.25</v>
       </c>
       <c r="K139" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L139" t="n">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="M139" t="n">
-        <v>1.585365853658537</v>
+        <v>1.917127071823205</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>5.357723577235772</v>
+        <v>5.469613259668508</v>
       </c>
     </row>
     <row r="140">
@@ -7560,43 +7560,43 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9999997500000625</v>
+        <v>0.2499999687500039</v>
       </c>
       <c r="F140" t="n">
-        <v>0.02173913031663516</v>
+        <v>0.07476635444143594</v>
       </c>
       <c r="G140" t="n">
-        <v>50.4</v>
+        <v>35</v>
       </c>
       <c r="H140" t="n">
-        <v>0.4325396825396826</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="I140" t="n">
-        <v>20.33301587301587</v>
+        <v>14.23314285714286</v>
       </c>
       <c r="J140" t="n">
-        <v>50.4</v>
+        <v>35</v>
       </c>
       <c r="K140" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L140" t="n">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="M140" t="n">
-        <v>1.488095238095238</v>
+        <v>2.051428571428572</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>5.646825396825397</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="141">
@@ -7611,43 +7611,43 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.333333277777787</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.02281368812618369</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>32.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.3392857142857143</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>13.20238095238095</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>32.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>1.26530612244898</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>4.645408163265306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -7662,43 +7662,43 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E142" t="n">
-        <v>0.249999984375001</v>
+        <v>0.1034482722948872</v>
       </c>
       <c r="F142" t="n">
-        <v>0.02191780818915369</v>
+        <v>0.05523809513287982</v>
       </c>
       <c r="G142" t="n">
-        <v>23.39583333333333</v>
+        <v>21.60416666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3873552983081033</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="I142" t="n">
-        <v>9.513275452656575</v>
+        <v>8.818715846994536</v>
       </c>
       <c r="J142" t="n">
-        <v>23.39583333333333</v>
+        <v>21.60416666666667</v>
       </c>
       <c r="K142" t="n">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="L142" t="n">
-        <v>730</v>
+        <v>525</v>
       </c>
       <c r="M142" t="n">
-        <v>1.378450578806768</v>
+        <v>1.738669238187078</v>
       </c>
       <c r="N142" t="n">
         <v>6</v>
       </c>
       <c r="O142" t="n">
-        <v>5.052537845057881</v>
+        <v>5.008678881388621</v>
       </c>
     </row>
     <row r="143">
@@ -7713,43 +7713,43 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1249999921875005</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.03485838772362007</v>
+        <v>0.06666666644444444</v>
       </c>
       <c r="G143" t="n">
-        <v>30.18181818181818</v>
+        <v>27.90476190476191</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4322289156626506</v>
+        <v>0.4965870307167236</v>
       </c>
       <c r="I143" t="n">
-        <v>12.24561883899234</v>
+        <v>11.36053957419145</v>
       </c>
       <c r="J143" t="n">
-        <v>30.18181818181818</v>
+        <v>27.90476190476191</v>
       </c>
       <c r="K143" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L143" t="n">
-        <v>459</v>
+        <v>300</v>
       </c>
       <c r="M143" t="n">
-        <v>1.492469879518072</v>
+        <v>1.878839590443686</v>
       </c>
       <c r="N143" t="n">
         <v>4</v>
       </c>
       <c r="O143" t="n">
-        <v>5.134036144578313</v>
+        <v>5.15358361774744</v>
       </c>
     </row>
     <row r="144">
@@ -7764,43 +7764,43 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>0.1111111069958849</v>
       </c>
       <c r="F144" t="n">
-        <v>0.02305475501000756</v>
+        <v>0.05325443776478415</v>
       </c>
       <c r="G144" t="n">
-        <v>29.18918918918919</v>
+        <v>29.67647058823529</v>
       </c>
       <c r="H144" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.4737363726461843</v>
       </c>
       <c r="I144" t="n">
-        <v>11.83900900900901</v>
+        <v>12.06008278435259</v>
       </c>
       <c r="J144" t="n">
-        <v>29.18918918918919</v>
+        <v>29.67647058823529</v>
       </c>
       <c r="K144" t="n">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="L144" t="n">
-        <v>694</v>
+        <v>507</v>
       </c>
       <c r="M144" t="n">
-        <v>1.422222222222222</v>
+        <v>1.782953419226957</v>
       </c>
       <c r="N144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O144" t="n">
-        <v>4.965740740740741</v>
+        <v>4.968285431119921</v>
       </c>
     </row>
     <row r="145">
@@ -7815,43 +7815,43 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D145" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2173912948960307</v>
+        <v>0.04347825992438566</v>
       </c>
       <c r="F145" t="n">
-        <v>0.02233009706569893</v>
+        <v>0.05927835043907429</v>
       </c>
       <c r="G145" t="n">
-        <v>24.31343283582089</v>
+        <v>24.03076923076923</v>
       </c>
       <c r="H145" t="n">
-        <v>0.376304481276857</v>
+        <v>0.4500640204865557</v>
       </c>
       <c r="I145" t="n">
-        <v>9.875894926839102</v>
+        <v>9.792333300502314</v>
       </c>
       <c r="J145" t="n">
-        <v>24.31343283582089</v>
+        <v>24.03076923076923</v>
       </c>
       <c r="K145" t="n">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="L145" t="n">
-        <v>1030</v>
+        <v>776</v>
       </c>
       <c r="M145" t="n">
-        <v>1.373235113566605</v>
+        <v>1.78809218950064</v>
       </c>
       <c r="N145" t="n">
         <v>6</v>
       </c>
       <c r="O145" t="n">
-        <v>4.888275015346839</v>
+        <v>4.881562099871959</v>
       </c>
     </row>
     <row r="146">
@@ -7866,43 +7866,43 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>0.142857132653062</v>
+        <v>-0.05263157617728546</v>
       </c>
       <c r="F146" t="n">
-        <v>0.06542056044196</v>
+        <v>0.1461538450295858</v>
       </c>
       <c r="G146" t="n">
-        <v>28.69230769230769</v>
+        <v>28.72727272727273</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3404825737265416</v>
+        <v>0.4145569620253164</v>
       </c>
       <c r="I146" t="n">
-        <v>11.61311610641369</v>
+        <v>11.65673187571922</v>
       </c>
       <c r="J146" t="n">
-        <v>28.69230769230769</v>
+        <v>28.72727272727273</v>
       </c>
       <c r="K146" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L146" t="n">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="M146" t="n">
-        <v>1.281501340482574</v>
+        <v>1.674050632911392</v>
       </c>
       <c r="N146" t="n">
         <v>11</v>
       </c>
       <c r="O146" t="n">
-        <v>4.804289544235925</v>
+        <v>4.854430379746836</v>
       </c>
     </row>
     <row r="147">
@@ -7917,43 +7917,43 @@
         </is>
       </c>
       <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
         <v>2</v>
       </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
       <c r="E147" t="n">
-        <v>0.99999950000025</v>
+        <v>-0.3333332222222593</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01960784294502115</v>
+        <v>0.06818181663223144</v>
       </c>
       <c r="G147" t="n">
-        <v>64.5</v>
+        <v>58</v>
       </c>
       <c r="H147" t="n">
-        <v>0.4728682170542636</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="I147" t="n">
-        <v>25.98914728682171</v>
+        <v>23.52413793103448</v>
       </c>
       <c r="J147" t="n">
-        <v>64.5</v>
+        <v>58</v>
       </c>
       <c r="K147" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L147" t="n">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="M147" t="n">
-        <v>1.589147286821705</v>
+        <v>2.793103448275862</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>6.023255813953488</v>
+        <v>7.758620689655173</v>
       </c>
     </row>
     <row r="148">
@@ -7971,40 +7971,40 @@
         <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9999996666667778</v>
+        <v>0.199999960000008</v>
       </c>
       <c r="F148" t="n">
-        <v>0.01863354025693453</v>
+        <v>0.05494505434126314</v>
       </c>
       <c r="G148" t="n">
-        <v>27.11111111111111</v>
+        <v>24.42857142857143</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="I148" t="n">
-        <v>11.00182149362477</v>
+        <v>9.970258980785296</v>
       </c>
       <c r="J148" t="n">
-        <v>27.11111111111111</v>
+        <v>24.42857142857143</v>
       </c>
       <c r="K148" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L148" t="n">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="M148" t="n">
-        <v>1.495901639344262</v>
+        <v>1.883040935672515</v>
       </c>
       <c r="N148" t="n">
         <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>5.299180327868853</v>
+        <v>5.339181286549707</v>
       </c>
     </row>
   </sheetData>
